--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -125,11 +125,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,6 +146,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,8 +195,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,580 +337,1073 @@
   </sheetPr>
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD13" activeCellId="0" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="0" t="s">
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>131072</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <f aca="false">(A2/B2)*D2</f>
         <v>4096</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <f aca="false">V2+W2</f>
-        <v>5739</v>
-      </c>
-      <c r="M2" s="0" t="n">
+        <v>5834</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <f aca="false">W2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <f aca="false">R2</f>
-        <v>5102</v>
-      </c>
-      <c r="O2" s="0" t="n">
+        <v>5161</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <f aca="false">X2</f>
         <v>158.5</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="1" t="n">
         <f aca="false">V2+W2</f>
-        <v>5739</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>5102</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>1683</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>5739</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="0" t="n">
+        <v>5834</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>5161</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>1675</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>5834</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="n">
         <v>158.5</v>
       </c>
-      <c r="Z2" s="0" t="n">
-        <v>-1.863</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="0" t="n">
+      <c r="Z2" s="1" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AB2" s="1" t="n">
         <v>0.166</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z2))*10^(-3)))</f>
-        <v>192.443389570803</v>
-      </c>
-      <c r="AE2" s="0" t="n">
+        <v>184.388444991914</v>
+      </c>
+      <c r="AE2" s="1" t="n">
         <f aca="false">AF2+AG2</f>
-        <v>4.056</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AG2" s="0" t="n">
+        <v>4.064</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>3.338</v>
+      </c>
+      <c r="AG2" s="1" t="n">
         <v>0.726</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2" s="1" t="n">
         <v>2.75</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>65536</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">(A3/B3)*D3</f>
         <v>2048</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="J3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <f aca="false">V3+W3</f>
-        <v>4552</v>
-      </c>
-      <c r="M3" s="0" t="n">
+        <v>4627</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <f aca="false">W3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <f aca="false">R3</f>
-        <v>4947</v>
-      </c>
-      <c r="O3" s="0" t="n">
+        <v>5010</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <f aca="false">X3</f>
         <v>64</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="1" t="n">
         <f aca="false">V3+W3</f>
-        <v>4552</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>4947</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>1063</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>4552</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="0" t="n">
+        <v>4627</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>5010</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>4627</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="Z3" s="0" t="n">
-        <v>-0.872</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AB3" s="0" t="n">
+      <c r="Z3" s="1" t="n">
+        <v>-0.948</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1" t="n">
         <v>0.166</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AC3" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z3))*10^(-3)))</f>
-        <v>237.793278378549</v>
-      </c>
-      <c r="AE3" s="0" t="n">
+        <v>233.572095922093</v>
+      </c>
+      <c r="AE3" s="1" t="n">
         <f aca="false">AF3+AG3</f>
         <v>3.861</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AF3" s="1" t="n">
         <v>3.137</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AG3" s="1" t="n">
         <v>0.724</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AH3" s="1" t="n">
         <v>2.75</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AI3" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="e">
+      <c r="A4" s="2" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <f aca="false">(A4/B4)*D4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <f aca="false">V4+W4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
+        <v>3369</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <f aca="false">W4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <f aca="false">R4</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
+        <v>2833</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <f aca="false">X4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="Q4" s="1" t="n">
         <f aca="false">V4+W4</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="0" t="n">
+        <v>3369</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2833</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>949</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>3369</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>-1.278</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC4" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z4))*10^(-3)))</f>
-        <v>300.000000003</v>
-      </c>
-      <c r="AE4" s="0" t="n">
+        <v>216.857018940414</v>
+      </c>
+      <c r="AE4" s="1" t="n">
         <f aca="false">AF4+AG4</f>
-        <v>0</v>
+        <v>3.882</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="e">
+      <c r="A5" s="1" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <f aca="false">(A5/B5)*D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="n">
         <f aca="false">V5+W5</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
+        <v>3016</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <f aca="false">W5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <f aca="false">R5</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="0" t="n">
+        <v>2779</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <f aca="false">X5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="Q5" s="1" t="n">
         <f aca="false">V5+W5</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="0" t="n">
+        <v>3016</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>2779</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>3016</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>-0.844</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC5" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z5))*10^(-3)))</f>
-        <v>300.000000003</v>
-      </c>
-      <c r="AE5" s="0" t="n">
+        <v>239.38716884966</v>
+      </c>
+      <c r="AE5" s="1" t="n">
         <f aca="false">AF5+AG5</f>
-        <v>0</v>
+        <v>3.823</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="e">
+      <c r="A6" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <f aca="false">(A6/B6)*D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <f aca="false">V6+W6</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
+        <v>2364</v>
+      </c>
+      <c r="M6" s="1" t="n">
         <f aca="false">W6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <f aca="false">R6</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="n">
+        <v>2643</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <f aca="false">X6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="1" t="n">
         <f aca="false">V6+W6</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="0" t="n">
+        <v>2364</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>2643</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>552</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>2364</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>-0.339</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC6" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z6))*10^(-3)))</f>
-        <v>300.000000003</v>
-      </c>
-      <c r="AE6" s="0" t="n">
+        <v>272.306435511231</v>
+      </c>
+      <c r="AE6" s="1" t="n">
         <f aca="false">AF6+AG6</f>
-        <v>0</v>
+        <v>3.649</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>2.927</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="e">
+      <c r="A7" s="0" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <f aca="false">(A7/B7)*D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <f aca="false">V7+W7</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
+        <v>2295</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <f aca="false">W7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <f aca="false">R7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="0" t="n">
+        <v>2576</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <f aca="false">X7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="1" t="n">
         <f aca="false">V7+W7</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="0" t="n">
+        <v>2295</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2576</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>2295</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>-0.267</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC7" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z7))*10^(-3)))</f>
-        <v>300.000000003</v>
-      </c>
-      <c r="AE7" s="0" t="n">
+        <v>277.752059997017</v>
+      </c>
+      <c r="AE7" s="1" t="n">
         <f aca="false">AF7+AG7</f>
-        <v>0</v>
+        <v>3.635</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="e">
+      <c r="A8" s="2" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <f aca="false">(A8/B8)*D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <f aca="false">V8+W8</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
+        <v>2065</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <f aca="false">W8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <f aca="false">R8</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="0" t="n">
+        <v>1639</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <f aca="false">X8</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="0" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="Q8" s="1" t="n">
         <f aca="false">V8+W8</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="0" t="n">
+        <v>2065</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1639</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>705</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>2065</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>-1.376</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC8" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z8))*10^(-3)))</f>
-        <v>300.000000003</v>
-      </c>
-      <c r="AE8" s="0" t="n">
+        <v>212.344280862205</v>
+      </c>
+      <c r="AE8" s="1" t="n">
         <f aca="false">AF8+AG8</f>
-        <v>0</v>
+        <v>3.778</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>3.054</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="e">
+      <c r="C9" s="1" t="e">
         <f aca="false">(A9/B9)*D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="n">
         <f aca="false">V9+W9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <f aca="false">W9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <f aca="false">R9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="1" t="n">
         <f aca="false">X9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="1" t="n">
         <f aca="false">V9+W9</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AC9" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z9))*10^(-3)))</f>
         <v>300.000000003</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AE9" s="1" t="n">
         <f aca="false">AF9+AG9</f>
         <v>0</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="e">
+      <c r="C10" s="1" t="e">
         <f aca="false">(A10/B10)*D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <f aca="false">V10+W10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <f aca="false">W10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <f aca="false">R10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="1" t="n">
         <f aca="false">X10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="1" t="n">
         <f aca="false">V10+W10</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AC10" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z10))*10^(-3)))</f>
         <v>300.000000003</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AE10" s="1" t="n">
         <f aca="false">AF10+AG10</f>
         <v>0</v>
+      </c>
+      <c r="AH10" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="e">
+      <c r="C11" s="1" t="e">
         <f aca="false">(A11/B11)*D11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">V11+W11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">W11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">R11</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <f aca="false">X11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <f aca="false">V11+W11</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z11))*10^(-3)))</f>
         <v>300.000000003</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AE11" s="1" t="n">
         <f aca="false">AF11+AG11</f>
         <v>0</v>
+      </c>
+      <c r="AH11" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="e">
+      <c r="C12" s="1" t="e">
         <f aca="false">(A12/B12)*D12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <f aca="false">V12+W12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">W12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <f aca="false">R12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <f aca="false">X12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <f aca="false">V12+W12</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z12))*10^(-3)))</f>
         <v>300.000000003</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AE12" s="1" t="n">
         <f aca="false">AF12+AG12</f>
         <v>0</v>
+      </c>
+      <c r="AH12" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
   </sheetData>

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -146,11 +146,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,11 +199,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,10 +326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD13" activeCellId="0" sqref="AD13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V14" activeCellId="0" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,32 +642,32 @@
       <c r="A4" s="2" t="n">
         <v>131072</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="n">
         <f aca="false">(A4/B4)*D4</f>
         <v>8192</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="I4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="n">
@@ -699,34 +690,34 @@
         <f aca="false">V4+W4</f>
         <v>3369</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="1" t="n">
         <v>2833</v>
       </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="0" t="n">
+      <c r="S4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="n">
         <v>949</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="1" t="n">
         <v>3369</v>
       </c>
-      <c r="W4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="0" t="n">
+      <c r="W4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="n">
         <v>134.5</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4" s="1" t="n">
         <v>-1.278</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AA4" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AB4" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC4" s="1" t="n">
@@ -737,10 +728,10 @@
         <f aca="false">AF4+AG4</f>
         <v>3.882</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AF4" s="1" t="n">
         <v>3.157</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AG4" s="1" t="n">
         <v>0.725</v>
       </c>
       <c r="AH4" s="1" t="n">
@@ -754,32 +745,32 @@
       <c r="A5" s="1" t="n">
         <v>65536</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="n">
         <f aca="false">(A5/B5)*D5</f>
         <v>4096</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="I5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="1" t="n">
@@ -802,34 +793,34 @@
         <f aca="false">V5+W5</f>
         <v>3016</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="1" t="n">
         <v>2779</v>
       </c>
-      <c r="S5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="0" t="n">
+      <c r="S5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <v>815</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <v>3016</v>
       </c>
-      <c r="W5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="0" t="n">
+      <c r="W5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="n">
         <v>78.5</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5" s="1" t="n">
         <v>-0.844</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AA5" s="1" t="n">
         <v>0.012</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AB5" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC5" s="1" t="n">
@@ -840,10 +831,10 @@
         <f aca="false">AF5+AG5</f>
         <v>3.823</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AF5" s="1" t="n">
         <v>3.099</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AG5" s="1" t="n">
         <v>0.724</v>
       </c>
       <c r="AH5" s="1" t="n">
@@ -854,10 +845,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>16384</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -905,34 +896,34 @@
         <f aca="false">V6+W6</f>
         <v>2364</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="1" t="n">
         <v>2643</v>
       </c>
-      <c r="S6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="0" t="n">
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="n">
         <v>552</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="1" t="n">
         <v>2364</v>
       </c>
-      <c r="W6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="0" t="n">
+      <c r="W6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="1" t="n">
         <v>-0.339</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AA6" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AB6" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC6" s="1" t="n">
@@ -943,10 +934,10 @@
         <f aca="false">AF6+AG6</f>
         <v>3.649</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AF6" s="1" t="n">
         <v>2.927</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AG6" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH6" s="1" t="n">
@@ -957,10 +948,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>8192</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -1008,34 +999,34 @@
         <f aca="false">V7+W7</f>
         <v>2295</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="1" t="n">
         <v>2576</v>
       </c>
-      <c r="S7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="0" t="n">
+      <c r="S7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>510</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="1" t="n">
         <v>2295</v>
       </c>
-      <c r="W7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="0" t="n">
+      <c r="W7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="1" t="n">
         <v>-0.267</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AA7" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AB7" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC7" s="1" t="n">
@@ -1046,10 +1037,10 @@
         <f aca="false">AF7+AG7</f>
         <v>3.635</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AF7" s="1" t="n">
         <v>2.913</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AG7" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH7" s="1" t="n">
@@ -1063,32 +1054,32 @@
       <c r="A8" s="2" t="n">
         <v>131072</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="n">
         <f aca="false">(A8/B8)*D8</f>
         <v>16384</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="I8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -1111,34 +1102,34 @@
         <f aca="false">V8+W8</f>
         <v>2065</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="1" t="n">
         <v>1639</v>
       </c>
-      <c r="S8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="0" t="n">
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="n">
         <v>705</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="1" t="n">
         <v>2065</v>
       </c>
-      <c r="W8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="0" t="n">
+      <c r="W8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="n">
         <v>118.5</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8" s="1" t="n">
         <v>-1.376</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AA8" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AB8" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC8" s="1" t="n">
@@ -1149,10 +1140,10 @@
         <f aca="false">AF8+AG8</f>
         <v>3.778</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AF8" s="1" t="n">
         <v>3.054</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AG8" s="1" t="n">
         <v>0.724</v>
       </c>
       <c r="AH8" s="1" t="n">
@@ -1163,34 +1154,40 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1" t="e">
+      <c r="A9" s="1" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <f aca="false">(A9/B9)*D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F9" s="0" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="I9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="1" t="n">
         <f aca="false">V9+W9</f>
-        <v>0</v>
+        <v>1713</v>
       </c>
       <c r="M9" s="1" t="n">
         <f aca="false">W9</f>
@@ -1198,23 +1195,59 @@
       </c>
       <c r="N9" s="1" t="n">
         <f aca="false">R9</f>
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="O9" s="1" t="n">
         <f aca="false">X9</f>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="Q9" s="1" t="n">
         <f aca="false">V9+W9</f>
-        <v>0</v>
+        <v>1713</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1608</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>1713</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>-0.632</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>0.166</v>
       </c>
       <c r="AC9" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z9))*10^(-3)))</f>
-        <v>300.000000003</v>
+        <v>252.185608610055</v>
       </c>
       <c r="AE9" s="1" t="n">
         <f aca="false">AF9+AG9</f>
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>2.977</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>0.723</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>2.75</v>
@@ -1224,9 +1257,15 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="e">
+      <c r="A10" s="1" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <f aca="false">(A10/B10)*D10</f>
-        <v>#DIV/0!</v>
+        <v>2048</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
@@ -1251,7 +1290,7 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">V10+W10</f>
-        <v>0</v>
+        <v>1324</v>
       </c>
       <c r="M10" s="1" t="n">
         <f aca="false">W10</f>
@@ -1259,23 +1298,59 @@
       </c>
       <c r="N10" s="1" t="n">
         <f aca="false">R10</f>
-        <v>0</v>
+        <v>1324</v>
       </c>
       <c r="O10" s="1" t="n">
         <f aca="false">X10</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="1" t="n">
         <f aca="false">V10+W10</f>
-        <v>0</v>
+        <v>1324</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1324</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>1324</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>0.166</v>
       </c>
       <c r="AC10" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z10))*10^(-3)))</f>
-        <v>300.000000003</v>
+        <v>302.358395487829</v>
       </c>
       <c r="AE10" s="1" t="n">
         <f aca="false">AF10+AG10</f>
-        <v>0</v>
+        <v>3.63</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>0.722</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>2.75</v>
@@ -1285,9 +1360,15 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1" t="e">
+      <c r="A11" s="1" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <f aca="false">(A11/B11)*D11</f>
-        <v>#DIV/0!</v>
+        <v>1024</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1</v>
@@ -1312,7 +1393,7 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">V11+W11</f>
-        <v>0</v>
+        <v>1295</v>
       </c>
       <c r="M11" s="1" t="n">
         <f aca="false">W11</f>
@@ -1320,23 +1401,59 @@
       </c>
       <c r="N11" s="1" t="n">
         <f aca="false">R11</f>
-        <v>0</v>
+        <v>1489</v>
       </c>
       <c r="O11" s="1" t="n">
         <f aca="false">X11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="1" t="n">
         <f aca="false">V11+W11</f>
-        <v>0</v>
+        <v>1295</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1489</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>1295</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>0.166</v>
       </c>
       <c r="AC11" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z11))*10^(-3)))</f>
-        <v>300.000000003</v>
+        <v>300.090027011104</v>
       </c>
       <c r="AE11" s="1" t="n">
         <f aca="false">AF11+AG11</f>
-        <v>0</v>
+        <v>3.612</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>0.722</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>2.75</v>
@@ -1346,34 +1463,40 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1" t="e">
+      <c r="A12" s="1" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <f aca="false">(A12/B12)*D12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F12" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="I12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="1" t="n">
         <f aca="false">V12+W12</f>
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="M12" s="1" t="n">
         <f aca="false">W12</f>
@@ -1381,28 +1504,247 @@
       </c>
       <c r="N12" s="1" t="n">
         <f aca="false">R12</f>
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="O12" s="1" t="n">
         <f aca="false">X12</f>
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="Q12" s="1" t="n">
         <f aca="false">V12+W12</f>
-        <v>0</v>
+        <v>1082</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1012</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>1082</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>-0.692</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>0.166</v>
       </c>
       <c r="AC12" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z12))*10^(-3)))</f>
-        <v>300.000000003</v>
+        <v>248.426631336936</v>
       </c>
       <c r="AE12" s="1" t="n">
         <f aca="false">AF12+AG12</f>
-        <v>0</v>
+        <v>3.681</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>2.959</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>0.722</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>2.75</v>
       </c>
       <c r="AI12" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="e">
+        <f aca="false">(A13/B13)*D13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">V13+W13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">W13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <f aca="false">R13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <f aca="false">X13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <f aca="false">V13+W13</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z13))*10^(-3)))</f>
+        <v>300.000000003</v>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <f aca="false">AF13+AG13</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1" t="e">
+        <f aca="false">(A14/B14)*D14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <f aca="false">V14+W14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">W14</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <f aca="false">R14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <f aca="false">X14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <f aca="false">V14+W14</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z14))*10^(-3)))</f>
+        <v>300.000000003</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <f aca="false">AF14+AG14</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1" t="e">
+        <f aca="false">(A15/B15)*D15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <f aca="false">V15+W15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">W15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <f aca="false">R15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <f aca="false">X15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <f aca="false">V15+W15</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z15))*10^(-3)))</f>
+        <v>300.000000003</v>
+      </c>
+      <c r="AE15" s="1" t="n">
+        <f aca="false">AF15+AG15</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI15" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -326,10 +326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V14" activeCellId="0" sqref="V14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1157,7 +1157,7 @@
       <c r="A9" s="1" t="n">
         <v>65536</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1205,34 +1205,34 @@
         <f aca="false">V9+W9</f>
         <v>1713</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="1" t="n">
         <v>1608</v>
       </c>
-      <c r="S9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="0" t="n">
+      <c r="S9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="1" t="n">
         <v>1713</v>
       </c>
-      <c r="W9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="0" t="n">
+      <c r="W9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="n">
         <v>66.5</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9" s="1" t="n">
         <v>-0.632</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AA9" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AB9" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC9" s="1" t="n">
@@ -1243,10 +1243,10 @@
         <f aca="false">AF9+AG9</f>
         <v>3.7</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AF9" s="1" t="n">
         <v>2.977</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AG9" s="1" t="n">
         <v>0.723</v>
       </c>
       <c r="AH9" s="1" t="n">
@@ -1260,7 +1260,7 @@
       <c r="A10" s="1" t="n">
         <v>16384</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1308,34 +1308,34 @@
         <f aca="false">V10+W10</f>
         <v>1324</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="1" t="n">
         <v>1324</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="0" t="n">
+      <c r="S10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="1" t="n">
         <v>1324</v>
       </c>
-      <c r="W10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z10" s="0" t="n">
+      <c r="W10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="1" t="n">
         <v>0.026</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AA10" s="1" t="n">
         <v>0.011</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AB10" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC10" s="1" t="n">
@@ -1346,10 +1346,10 @@
         <f aca="false">AF10+AG10</f>
         <v>3.63</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AF10" s="1" t="n">
         <v>2.908</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AG10" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH10" s="1" t="n">
@@ -1363,7 +1363,7 @@
       <c r="A11" s="1" t="n">
         <v>8192</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1411,34 +1411,34 @@
         <f aca="false">V11+W11</f>
         <v>1295</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="1" t="n">
         <v>1489</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="0" t="n">
+      <c r="S11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="1" t="n">
         <v>1295</v>
       </c>
-      <c r="W11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="0" t="n">
+      <c r="W11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AA11" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AB11" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC11" s="1" t="n">
@@ -1449,10 +1449,10 @@
         <f aca="false">AF11+AG11</f>
         <v>3.612</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AF11" s="1" t="n">
         <v>2.89</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AG11" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH11" s="1" t="n">
@@ -1466,7 +1466,7 @@
       <c r="A12" s="1" t="n">
         <v>65536</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1514,34 +1514,34 @@
         <f aca="false">V12+W12</f>
         <v>1082</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="1" t="n">
         <v>1012</v>
       </c>
-      <c r="S12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="0" t="n">
+      <c r="S12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="1" t="n">
         <v>1082</v>
       </c>
-      <c r="W12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="0" t="n">
+      <c r="W12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="n">
         <v>58.5</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12" s="1" t="n">
         <v>-0.692</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AA12" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AB12" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC12" s="1" t="n">
@@ -1552,10 +1552,10 @@
         <f aca="false">AF12+AG12</f>
         <v>3.681</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AF12" s="1" t="n">
         <v>2.959</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AG12" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH12" s="1" t="n">
@@ -1566,9 +1566,15 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="e">
+      <c r="A13" s="1" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <f aca="false">(A13/B13)*D13</f>
-        <v>#DIV/0!</v>
+        <v>8192</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
@@ -1593,7 +1599,7 @@
       </c>
       <c r="L13" s="1" t="n">
         <f aca="false">V13+W13</f>
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="M13" s="1" t="n">
         <f aca="false">W13</f>
@@ -1601,23 +1607,59 @@
       </c>
       <c r="N13" s="1" t="n">
         <f aca="false">R13</f>
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="O13" s="1" t="n">
         <f aca="false">X13</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="Q13" s="1" t="n">
         <f aca="false">V13+W13</f>
-        <v>0</v>
+        <v>992</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>-0.392</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>0.166</v>
       </c>
       <c r="AC13" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z13))*10^(-3)))</f>
-        <v>300.000000003</v>
+        <v>268.43235504893</v>
       </c>
       <c r="AE13" s="1" t="n">
         <f aca="false">AF13+AG13</f>
-        <v>0</v>
+        <v>3.648</v>
+      </c>
+      <c r="AF13" s="1" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="AG13" s="1" t="n">
+        <v>0.723</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>2.75</v>
@@ -1627,9 +1669,15 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1" t="e">
+      <c r="A14" s="1" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <f aca="false">(A14/B14)*D14</f>
-        <v>#DIV/0!</v>
+        <v>4096</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
@@ -1654,7 +1702,7 @@
       </c>
       <c r="L14" s="1" t="n">
         <f aca="false">V14+W14</f>
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="M14" s="1" t="n">
         <f aca="false">W14</f>
@@ -1662,23 +1710,59 @@
       </c>
       <c r="N14" s="1" t="n">
         <f aca="false">R14</f>
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="O14" s="1" t="n">
         <f aca="false">X14</f>
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Q14" s="1" t="n">
         <f aca="false">V14+W14</f>
-        <v>0</v>
+        <v>914</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>0.166</v>
       </c>
       <c r="AC14" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z14))*10^(-3)))</f>
-        <v>300.000000003</v>
+        <v>289.491460004723</v>
       </c>
       <c r="AE14" s="1" t="n">
         <f aca="false">AF14+AG14</f>
-        <v>0</v>
+        <v>3.622</v>
+      </c>
+      <c r="AF14" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG14" s="1" t="n">
+        <v>0.722</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>2.75</v>
@@ -1688,9 +1772,15 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="e">
+      <c r="A15" s="1" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <f aca="false">(A15/B15)*D15</f>
-        <v>#DIV/0!</v>
+        <v>2048</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
@@ -1715,7 +1805,7 @@
       </c>
       <c r="L15" s="1" t="n">
         <f aca="false">V15+W15</f>
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="M15" s="1" t="n">
         <f aca="false">W15</f>
@@ -1723,28 +1813,495 @@
       </c>
       <c r="N15" s="1" t="n">
         <f aca="false">R15</f>
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="O15" s="1" t="n">
         <f aca="false">X15</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="1" t="n">
         <f aca="false">V15+W15</f>
-        <v>0</v>
+        <v>802</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>0.166</v>
       </c>
       <c r="AC15" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z15))*10^(-3)))</f>
-        <v>300.000000003</v>
+        <v>315.22538615441</v>
       </c>
       <c r="AE15" s="1" t="n">
         <f aca="false">AF15+AG15</f>
-        <v>0</v>
+        <v>3.594</v>
+      </c>
+      <c r="AF15" s="1" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="AG15" s="1" t="n">
+        <v>0.722</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>2.75</v>
       </c>
       <c r="AI15" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <f aca="false">(A16/B16)*D16</f>
+        <v>1024</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <f aca="false">V16+W16</f>
+        <v>4434</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">W16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <f aca="false">R16</f>
+        <v>4880</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <f aca="false">X16</f>
+        <v>32</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <f aca="false">V16+W16</f>
+        <v>4434</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>4880</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>4434</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z16))*10^(-3)))</f>
+        <v>246.103363414652</v>
+      </c>
+      <c r="AE16" s="1" t="n">
+        <f aca="false">AF16+AG16</f>
+        <v>3.742</v>
+      </c>
+      <c r="AF16" s="1" t="n">
+        <v>3.019</v>
+      </c>
+      <c r="AG16" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH16" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <f aca="false">(A17/B17)*D17</f>
+        <v>2048</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <f aca="false">V17+W17</f>
+        <v>2441</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">W17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <f aca="false">R17</f>
+        <v>2703</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <f aca="false">X17</f>
+        <v>32</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <f aca="false">V17+W17</f>
+        <v>2441</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>2703</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>602</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>2441</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>-0.502</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z17))*10^(-3)))</f>
+        <v>260.733530334267</v>
+      </c>
+      <c r="AE17" s="1" t="n">
+        <f aca="false">AF17+AG17</f>
+        <v>3.709</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH17" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI17" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <f aca="false">(A18/B18)*D18</f>
+        <v>4096</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <f aca="false">V18+W18</f>
+        <v>1599</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">W18</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <f aca="false">R18</f>
+        <v>1567</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <f aca="false">X18</f>
+        <v>38.5</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <f aca="false">V18+W18</f>
+        <v>1599</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1567</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>1599</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC18" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z18))*10^(-3)))</f>
+        <v>261.962975901694</v>
+      </c>
+      <c r="AE18" s="1" t="n">
+        <f aca="false">AF18+AG18</f>
+        <v>3.681</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>2.958</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI18" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="e">
+        <f aca="false">(A19/B19)*D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">V19+W19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">W19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <f aca="false">R19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <f aca="false">X19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <f aca="false">V19+W19</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z19))*10^(-3)))</f>
+        <v>300.000000003</v>
+      </c>
+      <c r="AE19" s="1" t="n">
+        <f aca="false">AF19+AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI19" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="e">
+        <f aca="false">(A20/B20)*D20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">V20+W20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">W20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <f aca="false">R20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <f aca="false">X20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <f aca="false">V20+W20</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z20))*10^(-3)))</f>
+        <v>300.000000003</v>
+      </c>
+      <c r="AE20" s="1" t="n">
+        <f aca="false">AF20+AG20</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI20" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t xml:space="preserve">Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALG vers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAM für valid Flags</t>
   </si>
 </sst>
 </file>
@@ -326,10 +335,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y36" activeCellId="0" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,13 +443,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
+        <f aca="false">(B2*C2*D2)</f>
         <v>131072</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <f aca="false">(A2/B2)*D2</f>
         <v>4096</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -537,13 +546,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
+        <f aca="false">(B3*C3*D3)</f>
         <v>65536</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="n">
-        <f aca="false">(A3/B3)*D3</f>
         <v>2048</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -639,15 +648,15 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>131072</v>
+      <c r="A4" s="1" t="n">
+        <f aca="false">(B4*C4*D4)</f>
+        <v>32768</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="n">
-        <f aca="false">(A4/B4)*D4</f>
-        <v>8192</v>
+        <v>1024</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1</v>
@@ -672,7 +681,7 @@
       </c>
       <c r="L4" s="1" t="n">
         <f aca="false">V4+W4</f>
-        <v>3369</v>
+        <v>4434</v>
       </c>
       <c r="M4" s="1" t="n">
         <f aca="false">W4</f>
@@ -680,18 +689,18 @@
       </c>
       <c r="N4" s="1" t="n">
         <f aca="false">R4</f>
-        <v>2833</v>
+        <v>4880</v>
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">X4</f>
-        <v>134.5</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">V4+W4</f>
-        <v>3369</v>
+        <v>4434</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>2833</v>
+        <v>4880</v>
       </c>
       <c r="S4" s="1" t="n">
         <v>0</v>
@@ -700,39 +709,39 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>3369</v>
+        <v>4434</v>
       </c>
       <c r="W4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>134.5</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>-1.278</v>
+        <v>-0.73</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="AB4" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC4" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z4))*10^(-3)))</f>
-        <v>216.857018940414</v>
+        <v>246.103363414652</v>
       </c>
       <c r="AE4" s="1" t="n">
         <f aca="false">AF4+AG4</f>
-        <v>3.882</v>
+        <v>3.742</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>3.157</v>
+        <v>3.019</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>0.725</v>
+        <v>0.723</v>
       </c>
       <c r="AH4" s="1" t="n">
         <v>2.75</v>
@@ -743,14 +752,14 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>65536</v>
+        <f aca="false">(B5*C5*D5)</f>
+        <v>131072</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="n">
-        <f aca="false">(A5/B5)*D5</f>
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
@@ -775,7 +784,7 @@
       </c>
       <c r="L5" s="1" t="n">
         <f aca="false">V5+W5</f>
-        <v>3016</v>
+        <v>3369</v>
       </c>
       <c r="M5" s="1" t="n">
         <f aca="false">W5</f>
@@ -783,18 +792,18 @@
       </c>
       <c r="N5" s="1" t="n">
         <f aca="false">R5</f>
-        <v>2779</v>
+        <v>2833</v>
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">X5</f>
-        <v>78.5</v>
+        <v>134.5</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">V5+W5</f>
-        <v>3016</v>
+        <v>3369</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>2779</v>
+        <v>2833</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>0</v>
@@ -803,39 +812,39 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>815</v>
+        <v>949</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>3016</v>
+        <v>3369</v>
       </c>
       <c r="W5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>78.5</v>
+        <v>134.5</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>-0.844</v>
+        <v>-1.278</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="AB5" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC5" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z5))*10^(-3)))</f>
-        <v>239.38716884966</v>
+        <v>216.857018940414</v>
       </c>
       <c r="AE5" s="1" t="n">
         <f aca="false">AF5+AG5</f>
-        <v>3.823</v>
+        <v>3.882</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>3.099</v>
+        <v>3.157</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="AH5" s="1" t="n">
         <v>2.75</v>
@@ -846,14 +855,14 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>16384</v>
+        <f aca="false">(B6*C6*D6)</f>
+        <v>65536</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="n">
-        <f aca="false">(A6/B6)*D6</f>
-        <v>1024</v>
+        <v>4096</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
@@ -864,7 +873,7 @@
       <c r="F6" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="1" t="n">
@@ -878,7 +887,7 @@
       </c>
       <c r="L6" s="1" t="n">
         <f aca="false">V6+W6</f>
-        <v>2364</v>
+        <v>3016</v>
       </c>
       <c r="M6" s="1" t="n">
         <f aca="false">W6</f>
@@ -886,18 +895,18 @@
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">R6</f>
-        <v>2643</v>
+        <v>2779</v>
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">X6</f>
-        <v>16</v>
+        <v>78.5</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">V6+W6</f>
-        <v>2364</v>
+        <v>3016</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>2643</v>
+        <v>2779</v>
       </c>
       <c r="S6" s="1" t="n">
         <v>0</v>
@@ -906,39 +915,39 @@
         <v>0</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>552</v>
+        <v>815</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>2364</v>
+        <v>3016</v>
       </c>
       <c r="W6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>16</v>
+        <v>78.5</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>-0.339</v>
+        <v>-0.844</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="AB6" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC6" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z6))*10^(-3)))</f>
-        <v>272.306435511231</v>
+        <v>239.38716884966</v>
       </c>
       <c r="AE6" s="1" t="n">
         <f aca="false">AF6+AG6</f>
-        <v>3.649</v>
+        <v>3.823</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>2.927</v>
+        <v>3.099</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>2.75</v>
@@ -949,14 +958,14 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>8192</v>
+        <f aca="false">(B7*C7*D7)</f>
+        <v>32768</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="n">
-        <f aca="false">(A7/B7)*D7</f>
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
@@ -967,7 +976,7 @@
       <c r="F7" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="1" t="n">
@@ -981,7 +990,7 @@
       </c>
       <c r="L7" s="1" t="n">
         <f aca="false">V7+W7</f>
-        <v>2295</v>
+        <v>2441</v>
       </c>
       <c r="M7" s="1" t="n">
         <f aca="false">W7</f>
@@ -989,18 +998,18 @@
       </c>
       <c r="N7" s="1" t="n">
         <f aca="false">R7</f>
-        <v>2576</v>
+        <v>2703</v>
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">X7</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">V7+W7</f>
-        <v>2295</v>
+        <v>2441</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>2576</v>
+        <v>2703</v>
       </c>
       <c r="S7" s="1" t="n">
         <v>0</v>
@@ -1009,39 +1018,39 @@
         <v>0</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>510</v>
+        <v>602</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>2295</v>
+        <v>2441</v>
       </c>
       <c r="W7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.267</v>
+        <v>-0.502</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="AB7" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC7" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z7))*10^(-3)))</f>
-        <v>277.752059997017</v>
+        <v>260.733530334267</v>
       </c>
       <c r="AE7" s="1" t="n">
         <f aca="false">AF7+AG7</f>
-        <v>3.635</v>
+        <v>3.709</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>2.913</v>
+        <v>2.986</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>2.75</v>
@@ -1051,15 +1060,15 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>131072</v>
+      <c r="A8" s="1" t="n">
+        <f aca="false">(B8*C8*D8)</f>
+        <v>16384</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="n">
-        <f aca="false">(A8/B8)*D8</f>
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
@@ -1070,7 +1079,7 @@
       <c r="F8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="1" t="n">
@@ -1084,7 +1093,7 @@
       </c>
       <c r="L8" s="1" t="n">
         <f aca="false">V8+W8</f>
-        <v>2065</v>
+        <v>2364</v>
       </c>
       <c r="M8" s="1" t="n">
         <f aca="false">W8</f>
@@ -1092,18 +1101,18 @@
       </c>
       <c r="N8" s="1" t="n">
         <f aca="false">R8</f>
-        <v>1639</v>
+        <v>2643</v>
       </c>
       <c r="O8" s="1" t="n">
         <f aca="false">X8</f>
-        <v>118.5</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">V8+W8</f>
-        <v>2065</v>
+        <v>2364</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>1639</v>
+        <v>2643</v>
       </c>
       <c r="S8" s="1" t="n">
         <v>0</v>
@@ -1112,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>705</v>
+        <v>552</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>2065</v>
+        <v>2364</v>
       </c>
       <c r="W8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>118.5</v>
+        <v>16</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>-1.376</v>
+        <v>-0.339</v>
       </c>
       <c r="AA8" s="1" t="n">
         <v>0.014</v>
@@ -1134,17 +1143,17 @@
       </c>
       <c r="AC8" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z8))*10^(-3)))</f>
-        <v>212.344280862205</v>
+        <v>272.306435511231</v>
       </c>
       <c r="AE8" s="1" t="n">
         <f aca="false">AF8+AG8</f>
-        <v>3.778</v>
+        <v>3.649</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>3.054</v>
+        <v>2.927</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>2.75</v>
@@ -1155,14 +1164,14 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>65536</v>
+        <f aca="false">(B9*C9*D9)</f>
+        <v>8192</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="n">
-        <f aca="false">(A9/B9)*D9</f>
-        <v>8192</v>
+        <v>512</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
@@ -1173,7 +1182,7 @@
       <c r="F9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="1" t="n">
@@ -1187,7 +1196,7 @@
       </c>
       <c r="L9" s="1" t="n">
         <f aca="false">V9+W9</f>
-        <v>1713</v>
+        <v>2295</v>
       </c>
       <c r="M9" s="1" t="n">
         <f aca="false">W9</f>
@@ -1195,18 +1204,18 @@
       </c>
       <c r="N9" s="1" t="n">
         <f aca="false">R9</f>
-        <v>1608</v>
+        <v>2576</v>
       </c>
       <c r="O9" s="1" t="n">
         <f aca="false">X9</f>
-        <v>66.5</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="1" t="n">
         <f aca="false">V9+W9</f>
-        <v>1713</v>
+        <v>2295</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>1608</v>
+        <v>2576</v>
       </c>
       <c r="S9" s="1" t="n">
         <v>0</v>
@@ -1215,39 +1224,39 @@
         <v>0</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>1713</v>
+        <v>2295</v>
       </c>
       <c r="W9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>66.5</v>
+        <v>8</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>-0.632</v>
+        <v>-0.267</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="AB9" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC9" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z9))*10^(-3)))</f>
-        <v>252.185608610055</v>
+        <v>277.752059997017</v>
       </c>
       <c r="AE9" s="1" t="n">
         <f aca="false">AF9+AG9</f>
-        <v>3.7</v>
+        <v>3.635</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>2.977</v>
+        <v>2.913</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>2.75</v>
@@ -1258,14 +1267,14 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
+        <f aca="false">(B10*C10*D10)</f>
+        <v>131072</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>16384</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">(A10/B10)*D10</f>
-        <v>2048</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
@@ -1276,7 +1285,7 @@
       <c r="F10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="1" t="n">
@@ -1290,7 +1299,7 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">V10+W10</f>
-        <v>1324</v>
+        <v>2065</v>
       </c>
       <c r="M10" s="1" t="n">
         <f aca="false">W10</f>
@@ -1298,18 +1307,18 @@
       </c>
       <c r="N10" s="1" t="n">
         <f aca="false">R10</f>
-        <v>1324</v>
+        <v>1639</v>
       </c>
       <c r="O10" s="1" t="n">
         <f aca="false">X10</f>
-        <v>16</v>
+        <v>118.5</v>
       </c>
       <c r="Q10" s="1" t="n">
         <f aca="false">V10+W10</f>
-        <v>1324</v>
+        <v>2065</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>1324</v>
+        <v>1639</v>
       </c>
       <c r="S10" s="1" t="n">
         <v>0</v>
@@ -1318,39 +1327,39 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>293</v>
+        <v>705</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>1324</v>
+        <v>2065</v>
       </c>
       <c r="W10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>16</v>
+        <v>118.5</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>0.026</v>
+        <v>-1.376</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC10" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z10))*10^(-3)))</f>
-        <v>302.358395487829</v>
+        <v>212.344280862205</v>
       </c>
       <c r="AE10" s="1" t="n">
         <f aca="false">AF10+AG10</f>
-        <v>3.63</v>
+        <v>3.778</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>2.908</v>
+        <v>3.054</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>2.75</v>
@@ -1361,14 +1370,14 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
+        <f aca="false">(B11*C11*D11)</f>
+        <v>65536</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>8192</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">(A11/B11)*D11</f>
-        <v>1024</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1</v>
@@ -1379,7 +1388,7 @@
       <c r="F11" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="1" t="n">
@@ -1393,7 +1402,7 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">V11+W11</f>
-        <v>1295</v>
+        <v>1713</v>
       </c>
       <c r="M11" s="1" t="n">
         <f aca="false">W11</f>
@@ -1401,18 +1410,18 @@
       </c>
       <c r="N11" s="1" t="n">
         <f aca="false">R11</f>
-        <v>1489</v>
+        <v>1608</v>
       </c>
       <c r="O11" s="1" t="n">
         <f aca="false">X11</f>
-        <v>8</v>
+        <v>66.5</v>
       </c>
       <c r="Q11" s="1" t="n">
         <f aca="false">V11+W11</f>
-        <v>1295</v>
+        <v>1713</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>1489</v>
+        <v>1608</v>
       </c>
       <c r="S11" s="1" t="n">
         <v>0</v>
@@ -1421,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>281</v>
+        <v>500</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>1295</v>
+        <v>1713</v>
       </c>
       <c r="W11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>8</v>
+        <v>66.5</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.632</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>0.001</v>
@@ -1443,17 +1452,17 @@
       </c>
       <c r="AC11" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z11))*10^(-3)))</f>
-        <v>300.090027011104</v>
+        <v>252.185608610055</v>
       </c>
       <c r="AE11" s="1" t="n">
         <f aca="false">AF11+AG11</f>
-        <v>3.612</v>
+        <v>3.7</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>2.89</v>
+        <v>2.977</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>2.75</v>
@@ -1464,14 +1473,14 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>65536</v>
+        <f aca="false">(B12*C12*D12)</f>
+        <v>32768</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="n">
-        <f aca="false">(A12/B12)*D12</f>
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1</v>
@@ -1482,7 +1491,7 @@
       <c r="F12" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="1" t="n">
@@ -1496,7 +1505,7 @@
       </c>
       <c r="L12" s="1" t="n">
         <f aca="false">V12+W12</f>
-        <v>1082</v>
+        <v>1599</v>
       </c>
       <c r="M12" s="1" t="n">
         <f aca="false">W12</f>
@@ -1504,18 +1513,18 @@
       </c>
       <c r="N12" s="1" t="n">
         <f aca="false">R12</f>
-        <v>1012</v>
+        <v>1567</v>
       </c>
       <c r="O12" s="1" t="n">
         <f aca="false">X12</f>
-        <v>58.5</v>
+        <v>38.5</v>
       </c>
       <c r="Q12" s="1" t="n">
         <f aca="false">V12+W12</f>
-        <v>1082</v>
+        <v>1599</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>1012</v>
+        <v>1567</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>0</v>
@@ -1524,39 +1533,39 @@
         <v>0</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>1082</v>
+        <v>1599</v>
       </c>
       <c r="W12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>58.5</v>
+        <v>38.5</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>-0.692</v>
+        <v>-0.484</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="AB12" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC12" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z12))*10^(-3)))</f>
-        <v>248.426631336936</v>
+        <v>261.962975901694</v>
       </c>
       <c r="AE12" s="1" t="n">
         <f aca="false">AF12+AG12</f>
         <v>3.681</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>2.959</v>
+        <v>2.958</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>2.75</v>
@@ -1567,14 +1576,14 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>32768</v>
+        <f aca="false">(B13*C13*D13)</f>
+        <v>16384</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="n">
-        <f aca="false">(A13/B13)*D13</f>
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
@@ -1585,7 +1594,7 @@
       <c r="F13" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="1" t="n">
@@ -1599,7 +1608,7 @@
       </c>
       <c r="L13" s="1" t="n">
         <f aca="false">V13+W13</f>
-        <v>992</v>
+        <v>1324</v>
       </c>
       <c r="M13" s="1" t="n">
         <f aca="false">W13</f>
@@ -1607,18 +1616,18 @@
       </c>
       <c r="N13" s="1" t="n">
         <f aca="false">R13</f>
-        <v>995</v>
+        <v>1324</v>
       </c>
       <c r="O13" s="1" t="n">
         <f aca="false">X13</f>
-        <v>32.5</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="1" t="n">
         <f aca="false">V13+W13</f>
-        <v>992</v>
+        <v>1324</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>995</v>
+        <v>1324</v>
       </c>
       <c r="S13" s="1" t="n">
         <v>0</v>
@@ -1627,39 +1636,39 @@
         <v>0</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>992</v>
+        <v>1324</v>
       </c>
       <c r="W13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>32.5</v>
+        <v>16</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>-0.392</v>
+        <v>0.026</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="AB13" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC13" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z13))*10^(-3)))</f>
-        <v>268.43235504893</v>
+        <v>302.358395487829</v>
       </c>
       <c r="AE13" s="1" t="n">
         <f aca="false">AF13+AG13</f>
-        <v>3.648</v>
+        <v>3.63</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>2.925</v>
+        <v>2.908</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>2.75</v>
@@ -1670,14 +1679,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>16384</v>
+        <f aca="false">(B14*C14*D14)</f>
+        <v>8192</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="n">
-        <f aca="false">(A14/B14)*D14</f>
-        <v>4096</v>
+        <v>1024</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
@@ -1702,7 +1711,7 @@
       </c>
       <c r="L14" s="1" t="n">
         <f aca="false">V14+W14</f>
-        <v>914</v>
+        <v>1295</v>
       </c>
       <c r="M14" s="1" t="n">
         <f aca="false">W14</f>
@@ -1710,18 +1719,18 @@
       </c>
       <c r="N14" s="1" t="n">
         <f aca="false">R14</f>
-        <v>971</v>
+        <v>1489</v>
       </c>
       <c r="O14" s="1" t="n">
         <f aca="false">X14</f>
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="1" t="n">
         <f aca="false">V14+W14</f>
-        <v>914</v>
+        <v>1295</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>971</v>
+        <v>1489</v>
       </c>
       <c r="S14" s="1" t="n">
         <v>0</v>
@@ -1730,36 +1739,36 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>914</v>
+        <v>1295</v>
       </c>
       <c r="W14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X14" s="1" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="Z14" s="1" t="n">
-        <v>-0.121</v>
+        <v>0.001</v>
       </c>
       <c r="AA14" s="1" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AB14" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC14" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z14))*10^(-3)))</f>
-        <v>289.491460004723</v>
+        <v>300.090027011104</v>
       </c>
       <c r="AE14" s="1" t="n">
         <f aca="false">AF14+AG14</f>
-        <v>3.622</v>
+        <v>3.612</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="AG14" s="1" t="n">
         <v>0.722</v>
@@ -1773,14 +1782,14 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>8192</v>
+        <f aca="false">(B15*C15*D15)</f>
+        <v>65536</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="n">
-        <f aca="false">(A15/B15)*D15</f>
-        <v>2048</v>
+        <v>16384</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
@@ -1791,7 +1800,7 @@
       <c r="F15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="1" t="n">
@@ -1805,7 +1814,7 @@
       </c>
       <c r="L15" s="1" t="n">
         <f aca="false">V15+W15</f>
-        <v>802</v>
+        <v>1082</v>
       </c>
       <c r="M15" s="1" t="n">
         <f aca="false">W15</f>
@@ -1813,18 +1822,18 @@
       </c>
       <c r="N15" s="1" t="n">
         <f aca="false">R15</f>
-        <v>975</v>
+        <v>1012</v>
       </c>
       <c r="O15" s="1" t="n">
         <f aca="false">X15</f>
-        <v>8</v>
+        <v>58.5</v>
       </c>
       <c r="Q15" s="1" t="n">
         <f aca="false">V15+W15</f>
-        <v>802</v>
+        <v>1082</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>975</v>
+        <v>1012</v>
       </c>
       <c r="S15" s="1" t="n">
         <v>0</v>
@@ -1833,36 +1842,36 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>169</v>
+        <v>397</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>802</v>
+        <v>1082</v>
       </c>
       <c r="W15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>8</v>
+        <v>58.5</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>0.161</v>
+        <v>-0.692</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="AB15" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC15" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z15))*10^(-3)))</f>
-        <v>315.22538615441</v>
+        <v>248.426631336936</v>
       </c>
       <c r="AE15" s="1" t="n">
         <f aca="false">AF15+AG15</f>
-        <v>3.594</v>
+        <v>3.681</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>2.872</v>
+        <v>2.959</v>
       </c>
       <c r="AG15" s="1" t="n">
         <v>0.722</v>
@@ -1876,14 +1885,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
+        <f aca="false">(B16*C16*D16)</f>
         <v>32768</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="n">
-        <f aca="false">(A16/B16)*D16</f>
-        <v>1024</v>
+        <v>8192</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>1</v>
@@ -1908,7 +1917,7 @@
       </c>
       <c r="L16" s="1" t="n">
         <f aca="false">V16+W16</f>
-        <v>4434</v>
+        <v>992</v>
       </c>
       <c r="M16" s="1" t="n">
         <f aca="false">W16</f>
@@ -1916,18 +1925,18 @@
       </c>
       <c r="N16" s="1" t="n">
         <f aca="false">R16</f>
-        <v>4880</v>
+        <v>995</v>
       </c>
       <c r="O16" s="1" t="n">
         <f aca="false">X16</f>
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="Q16" s="1" t="n">
         <f aca="false">V16+W16</f>
-        <v>4434</v>
+        <v>992</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>4880</v>
+        <v>995</v>
       </c>
       <c r="S16" s="1" t="n">
         <v>0</v>
@@ -1936,36 +1945,36 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>954</v>
+        <v>297</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>4434</v>
+        <v>992</v>
       </c>
       <c r="W16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>-0.73</v>
+        <v>-0.392</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="AB16" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC16" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z16))*10^(-3)))</f>
-        <v>246.103363414652</v>
+        <v>268.43235504893</v>
       </c>
       <c r="AE16" s="1" t="n">
         <f aca="false">AF16+AG16</f>
-        <v>3.742</v>
+        <v>3.648</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>3.019</v>
+        <v>2.925</v>
       </c>
       <c r="AG16" s="1" t="n">
         <v>0.723</v>
@@ -1979,14 +1988,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>32768</v>
+        <f aca="false">(B17*C17*D17)</f>
+        <v>16384</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="n">
-        <f aca="false">(A17/B17)*D17</f>
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1</v>
@@ -1997,7 +2006,7 @@
       <c r="F17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="1" t="n">
@@ -2011,7 +2020,7 @@
       </c>
       <c r="L17" s="1" t="n">
         <f aca="false">V17+W17</f>
-        <v>2441</v>
+        <v>914</v>
       </c>
       <c r="M17" s="1" t="n">
         <f aca="false">W17</f>
@@ -2019,59 +2028,59 @@
       </c>
       <c r="N17" s="1" t="n">
         <f aca="false">R17</f>
-        <v>2703</v>
+        <v>971</v>
       </c>
       <c r="O17" s="1" t="n">
         <f aca="false">X17</f>
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="Q17" s="1" t="n">
         <f aca="false">V17+W17</f>
-        <v>2441</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>2703</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>602</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>2441</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="0" t="n">
-        <v>-0.502</v>
-      </c>
-      <c r="AA17" s="0" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="AB17" s="0" t="n">
+        <v>914</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="V17" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB17" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC17" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z17))*10^(-3)))</f>
-        <v>260.733530334267</v>
+        <v>289.491460004723</v>
       </c>
       <c r="AE17" s="1" t="n">
         <f aca="false">AF17+AG17</f>
-        <v>3.709</v>
-      </c>
-      <c r="AF17" s="0" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="AG17" s="0" t="n">
-        <v>0.723</v>
+        <v>3.622</v>
+      </c>
+      <c r="AF17" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG17" s="1" t="n">
+        <v>0.722</v>
       </c>
       <c r="AH17" s="1" t="n">
         <v>2.75</v>
@@ -2082,14 +2091,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>32768</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>8</v>
+        <f aca="false">(B18*C18*D18)</f>
+        <v>8192</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="n">
-        <f aca="false">(A18/B18)*D18</f>
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>1</v>
@@ -2114,7 +2123,7 @@
       </c>
       <c r="L18" s="1" t="n">
         <f aca="false">V18+W18</f>
-        <v>1599</v>
+        <v>802</v>
       </c>
       <c r="M18" s="1" t="n">
         <f aca="false">W18</f>
@@ -2122,59 +2131,59 @@
       </c>
       <c r="N18" s="1" t="n">
         <f aca="false">R18</f>
-        <v>1567</v>
+        <v>975</v>
       </c>
       <c r="O18" s="1" t="n">
         <f aca="false">X18</f>
-        <v>38.5</v>
+        <v>8</v>
       </c>
       <c r="Q18" s="1" t="n">
         <f aca="false">V18+W18</f>
-        <v>1599</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>1567</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>399</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>1599</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="AA18" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AB18" s="0" t="n">
+        <v>802</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="V18" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="AA18" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AB18" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC18" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z18))*10^(-3)))</f>
-        <v>261.962975901694</v>
+        <v>315.22538615441</v>
       </c>
       <c r="AE18" s="1" t="n">
         <f aca="false">AF18+AG18</f>
-        <v>3.681</v>
-      </c>
-      <c r="AF18" s="0" t="n">
-        <v>2.958</v>
-      </c>
-      <c r="AG18" s="0" t="n">
-        <v>0.723</v>
+        <v>3.594</v>
+      </c>
+      <c r="AF18" s="1" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="AG18" s="1" t="n">
+        <v>0.722</v>
       </c>
       <c r="AH18" s="1" t="n">
         <v>2.75</v>
@@ -2184,125 +2193,1012 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1" t="e">
-        <f aca="false">(A19/B19)*D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1" t="n">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <f aca="false">(B24*C24*D24)</f>
+        <v>131072</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="1" t="n">
+      <c r="G24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <f aca="false">V19+W19</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">W19</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <f aca="false">R19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <f aca="false">X19</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1" t="n">
-        <f aca="false">V19+W19</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z19))*10^(-3)))</f>
-        <v>300.000000003</v>
-      </c>
-      <c r="AE19" s="1" t="n">
-        <f aca="false">AF19+AG19</f>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="1" t="n">
+      <c r="I24" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <f aca="false">V24+W24</f>
+        <v>3560</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">W24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <f aca="false">R24</f>
+        <v>2117</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <f aca="false">X24</f>
+        <v>128</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <f aca="false">V24+W24</f>
+        <v>3560</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>2117</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="V24" s="1" t="n">
+        <v>3560</v>
+      </c>
+      <c r="W24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z24" s="1" t="n">
+        <v>-1.702</v>
+      </c>
+      <c r="AA24" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AB24" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC24" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z24))*10^(-3)))</f>
+        <v>198.596584140067</v>
+      </c>
+      <c r="AE24" s="1" t="n">
+        <f aca="false">AF24+AG24</f>
+        <v>4.015</v>
+      </c>
+      <c r="AF24" s="1" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="AG24" s="1" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="AH24" s="1" t="n">
         <v>2.75</v>
       </c>
-      <c r="AI19" s="1" t="n">
+      <c r="AI24" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1" t="e">
-        <f aca="false">(A20/B20)*D20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="n">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <f aca="false">(B25*C25*D25)</f>
+        <v>65536</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="1" t="n">
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <f aca="false">V20+W20</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">W20</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <f aca="false">R20</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <f aca="false">X20</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <f aca="false">V20+W20</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z20))*10^(-3)))</f>
-        <v>300.000000003</v>
-      </c>
-      <c r="AE20" s="1" t="n">
-        <f aca="false">AF20+AG20</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="1" t="n">
+      <c r="I25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <f aca="false">V25+W25</f>
+        <v>3364</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">W25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <f aca="false">R25</f>
+        <v>2053</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <f aca="false">X25</f>
+        <v>64</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <f aca="false">V25+W25</f>
+        <v>3364</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>2053</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>951</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>3364</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>-1.202</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC25" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z25))*10^(-3)))</f>
+        <v>220.490959872266</v>
+      </c>
+      <c r="AE25" s="1" t="n">
+        <f aca="false">AF25+AG25</f>
+        <v>3.883</v>
+      </c>
+      <c r="AF25" s="0" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="AG25" s="0" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH25" s="1" t="n">
         <v>2.75</v>
       </c>
-      <c r="AI20" s="1" t="n">
+      <c r="AI25" s="1" t="n">
         <v>0.098</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <f aca="false">(B26*C26*D26)</f>
+        <v>32768</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <f aca="false">V26+W26</f>
+        <v>3295</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">W26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <f aca="false">R26</f>
+        <v>1990</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <f aca="false">X26</f>
+        <v>32</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <f aca="false">V26+W26</f>
+        <v>3295</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>710</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>3295</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>-0.855</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC26" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z26))*10^(-3)))</f>
+        <v>238.758456030551</v>
+      </c>
+      <c r="AE26" s="1" t="n">
+        <f aca="false">AF26+AG26</f>
+        <v>3.761</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH26" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <f aca="false">(B27*C27*D27)</f>
+        <v>131072</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <f aca="false">V27+W27</f>
+        <v>2100</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">W27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <f aca="false">R27</f>
+        <v>1253</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <f aca="false">X27</f>
+        <v>120</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <f aca="false">V27+W27</f>
+        <v>2100</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>1253</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>782</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>-1.765</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC27" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z27))*10^(-3)))</f>
+        <v>196.142530239922</v>
+      </c>
+      <c r="AE27" s="1" t="n">
+        <f aca="false">AF27+AG27</f>
+        <v>3.833</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="AG27" s="0" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH27" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <f aca="false">(B28*C28*D28)</f>
+        <v>65536</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <f aca="false">V28+W28</f>
+        <v>1790</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">W28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <f aca="false">R28</f>
+        <v>1222</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <f aca="false">X28</f>
+        <v>64</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <f aca="false">V28+W28</f>
+        <v>1790</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>1222</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>571</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>1790</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>-0.966</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC28" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z28))*10^(-3)))</f>
+        <v>232.594200653067</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <f aca="false">AF28+AG28</f>
+        <v>3.813</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH28" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <f aca="false">(B29*C29*D29)</f>
+        <v>32768</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <f aca="false">V29+W29</f>
+        <v>1670</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <f aca="false">W29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <f aca="false">R29</f>
+        <v>1190</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <f aca="false">X29</f>
+        <v>32</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <f aca="false">V29+W29</f>
+        <v>1670</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>1190</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>479</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>1670</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>-0.589</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC29" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z29))*10^(-3)))</f>
+        <v>254.950284696651</v>
+      </c>
+      <c r="AE29" s="1" t="n">
+        <f aca="false">AF29+AG29</f>
+        <v>3.711</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="AG29" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH29" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI29" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <f aca="false">(B30*C30*D30)</f>
+        <v>65536</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <f aca="false">V30+W30</f>
+        <v>3160</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">W30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <f aca="false">R30</f>
+        <v>1685</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <f aca="false">X30</f>
+        <v>64</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <f aca="false">V30+W30</f>
+        <v>3160</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>1685</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>786</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>3160</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>-1.367</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC30" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z30))*10^(-3)))</f>
+        <v>212.750868734223</v>
+      </c>
+      <c r="AE30" s="1" t="n">
+        <f aca="false">AF30+AG30</f>
+        <v>3.83</v>
+      </c>
+      <c r="AF30" s="0" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="AG30" s="0" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH30" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI30" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <f aca="false">(B31*C31*D31)</f>
+        <v>131072</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <f aca="false">V31+W31</f>
+        <v>5576</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">W31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <f aca="false">R31</f>
+        <v>2680</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <f aca="false">X31</f>
+        <v>120</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <f aca="false">V31+W31</f>
+        <v>5576</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>2680</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>1425</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>5576</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z31))*10^(-3)))</f>
+        <v>184.729064040546</v>
+      </c>
+      <c r="AE31" s="1" t="n">
+        <f aca="false">AF31+AG31</f>
+        <v>4.032</v>
+      </c>
+      <c r="AF31" s="0" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="AG31" s="0" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="AH31" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI31" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <f aca="false">(B32*C32*D32)</f>
+        <v>32768</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <f aca="false">V32+W32</f>
+        <v>3060</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <f aca="false">W32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <f aca="false">R32</f>
+        <v>1653</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <f aca="false">X32</f>
+        <v>32</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <f aca="false">V32+W32</f>
+        <v>3060</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>1653</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>676</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>3060</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>-0.903</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC32" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z32))*10^(-3)))</f>
+        <v>236.053190654151</v>
+      </c>
+      <c r="AE32" s="1" t="n">
+        <f aca="false">AF32+AG32</f>
+        <v>3.751</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="AG32" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH32" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI32" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <f aca="false">(B33*C33*D33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <f aca="false">(B34*C34*D34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <f aca="false">(B35*C35*D35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <f aca="false">(B36*C36*D36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <f aca="false">(B37*C37*D37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <f aca="false">(B38*C38*D38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -337,8 +337,8 @@
   </sheetPr>
   <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y36" activeCellId="0" sqref="Y36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH21" activeCellId="0" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2225,7 +2225,210 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0"/>
+      <c r="A20" s="1" t="n">
+        <f aca="false">(B20*C20*D20)</f>
+        <v>8192</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">V20+W20</f>
+        <v>20937</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">W20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <f aca="false">R20</f>
+        <v>16794</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <f aca="false">X20</f>
+        <v>8</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <f aca="false">V20+W20</f>
+        <v>20937</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>16794</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>3980</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>20937</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z20))*10^(-3)))</f>
+        <v>262.789067977074</v>
+      </c>
+      <c r="AE20" s="1" t="n">
+        <f aca="false">AF20+AG20</f>
+        <v>3.708</v>
+      </c>
+      <c r="AF20" s="1" t="n">
+        <v>2.985</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH20" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI20" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <f aca="false">(B21*C21*D21)</f>
+        <v>8192</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">V21+W21</f>
+        <v>8769</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">W21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <f aca="false">R21</f>
+        <v>8741</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <f aca="false">X21</f>
+        <v>8</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <f aca="false">V21+W21</f>
+        <v>8769</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>8741</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>1918</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>8769</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>-0.426</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z21))*10^(-3)))</f>
+        <v>266.004610748945</v>
+      </c>
+      <c r="AE21" s="1" t="n">
+        <f aca="false">AF21+AG21</f>
+        <v>3.668</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>2.946</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AH21" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI21" s="1" t="n">
+        <v>0.098</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -2335,7 +2538,7 @@
         <f aca="false">(B25*C25*D25)</f>
         <v>65536</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C25" s="1" t="n">
@@ -2382,34 +2585,34 @@
         <f aca="false">V25+W25</f>
         <v>3364</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="1" t="n">
         <v>2053</v>
       </c>
-      <c r="S25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="0" t="n">
+      <c r="S25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="U25" s="1" t="n">
         <v>951</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25" s="1" t="n">
         <v>3364</v>
       </c>
-      <c r="W25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="0" t="n">
+      <c r="W25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="Z25" s="1" t="n">
         <v>-1.202</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AA25" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AB25" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC25" s="1" t="n">
@@ -2420,10 +2623,10 @@
         <f aca="false">AF25+AG25</f>
         <v>3.883</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AF25" s="1" t="n">
         <v>3.158</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AG25" s="1" t="n">
         <v>0.725</v>
       </c>
       <c r="AH25" s="1" t="n">
@@ -2438,19 +2641,19 @@
         <f aca="false">(B26*C26*D26)</f>
         <v>32768</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F26" s="0" t="n">
+      <c r="D26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2485,34 +2688,34 @@
         <f aca="false">V26+W26</f>
         <v>3295</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="S26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="0" t="n">
+      <c r="S26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="U26" s="1" t="n">
         <v>710</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="1" t="n">
         <v>3295</v>
       </c>
-      <c r="W26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="0" t="n">
+      <c r="W26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="Z26" s="1" t="n">
         <v>-0.855</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AA26" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AB26" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC26" s="1" t="n">
@@ -2523,10 +2726,10 @@
         <f aca="false">AF26+AG26</f>
         <v>3.761</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AF26" s="1" t="n">
         <v>3.038</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AG26" s="1" t="n">
         <v>0.723</v>
       </c>
       <c r="AH26" s="1" t="n">
@@ -2541,13 +2744,13 @@
         <f aca="false">(B27*C27*D27)</f>
         <v>131072</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>8192</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="n">
@@ -2588,34 +2791,34 @@
         <f aca="false">V27+W27</f>
         <v>2100</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27" s="1" t="n">
         <v>1253</v>
       </c>
-      <c r="S27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="0" t="n">
+      <c r="S27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="n">
         <v>782</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="1" t="n">
         <v>2100</v>
       </c>
-      <c r="W27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="0" t="n">
+      <c r="W27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="Z27" s="1" t="n">
         <v>-1.765</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AA27" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AB27" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC27" s="1" t="n">
@@ -2626,10 +2829,10 @@
         <f aca="false">AF27+AG27</f>
         <v>3.833</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AF27" s="1" t="n">
         <v>3.108</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AG27" s="1" t="n">
         <v>0.725</v>
       </c>
       <c r="AH27" s="1" t="n">
@@ -2644,13 +2847,13 @@
         <f aca="false">(B28*C28*D28)</f>
         <v>65536</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="n">
@@ -2691,34 +2894,34 @@
         <f aca="false">V28+W28</f>
         <v>1790</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28" s="1" t="n">
         <v>1222</v>
       </c>
-      <c r="S28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="0" t="n">
+      <c r="S28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1" t="n">
         <v>571</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28" s="1" t="n">
         <v>1790</v>
       </c>
-      <c r="W28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="0" t="n">
+      <c r="W28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="Z28" s="1" t="n">
         <v>-0.966</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AA28" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AB28" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC28" s="1" t="n">
@@ -2729,10 +2932,10 @@
         <f aca="false">AF28+AG28</f>
         <v>3.813</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AF28" s="1" t="n">
         <v>3.089</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AG28" s="1" t="n">
         <v>0.724</v>
       </c>
       <c r="AH28" s="1" t="n">
@@ -2747,13 +2950,13 @@
         <f aca="false">(B29*C29*D29)</f>
         <v>32768</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>2048</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="n">
@@ -2794,34 +2997,34 @@
         <f aca="false">V29+W29</f>
         <v>1670</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29" s="1" t="n">
         <v>1190</v>
       </c>
-      <c r="S29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="0" t="n">
+      <c r="S29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1" t="n">
         <v>479</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29" s="1" t="n">
         <v>1670</v>
       </c>
-      <c r="W29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="0" t="n">
+      <c r="W29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="Z29" s="1" t="n">
         <v>-0.589</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AA29" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AB29" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC29" s="1" t="n">
@@ -2832,10 +3035,10 @@
         <f aca="false">AF29+AG29</f>
         <v>3.711</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AF29" s="1" t="n">
         <v>2.988</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AG29" s="1" t="n">
         <v>0.723</v>
       </c>
       <c r="AH29" s="1" t="n">
@@ -2850,19 +3053,19 @@
         <f aca="false">(B30*C30*D30)</f>
         <v>65536</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>2048</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F30" s="0" t="n">
+      <c r="E30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2897,34 +3100,34 @@
         <f aca="false">V30+W30</f>
         <v>3160</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="R30" s="1" t="n">
         <v>1685</v>
       </c>
-      <c r="S30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" s="0" t="n">
+      <c r="S30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1" t="n">
         <v>786</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="V30" s="1" t="n">
         <v>3160</v>
       </c>
-      <c r="W30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="0" t="n">
+      <c r="W30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="Z30" s="1" t="n">
         <v>-1.367</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AA30" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AB30" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC30" s="1" t="n">
@@ -2935,10 +3138,10 @@
         <f aca="false">AF30+AG30</f>
         <v>3.83</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AF30" s="1" t="n">
         <v>3.106</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AG30" s="1" t="n">
         <v>0.724</v>
       </c>
       <c r="AH30" s="1" t="n">
@@ -2953,13 +3156,13 @@
         <f aca="false">(B31*C31*D31)</f>
         <v>131072</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>2048</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E31" s="1" t="n">
@@ -3000,34 +3203,34 @@
         <f aca="false">V31+W31</f>
         <v>5576</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31" s="1" t="n">
         <v>2680</v>
       </c>
-      <c r="S31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="0" t="n">
+      <c r="S31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1" t="n">
         <v>1425</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="V31" s="1" t="n">
         <v>5576</v>
       </c>
-      <c r="W31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="0" t="n">
+      <c r="W31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="Z31" s="1" t="n">
         <v>-2.08</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AA31" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AB31" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC31" s="1" t="n">
@@ -3038,10 +3241,10 @@
         <f aca="false">AF31+AG31</f>
         <v>4.032</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AF31" s="1" t="n">
         <v>3.306</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AG31" s="1" t="n">
         <v>0.726</v>
       </c>
       <c r="AH31" s="1" t="n">
@@ -3056,13 +3259,13 @@
         <f aca="false">(B32*C32*D32)</f>
         <v>32768</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E32" s="1" t="n">
@@ -3103,34 +3306,34 @@
         <f aca="false">V32+W32</f>
         <v>3060</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="R32" s="1" t="n">
         <v>1653</v>
       </c>
-      <c r="S32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="0" t="n">
+      <c r="S32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1" t="n">
         <v>676</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="V32" s="1" t="n">
         <v>3060</v>
       </c>
-      <c r="W32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="0" t="n">
+      <c r="W32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="Z32" s="1" t="n">
         <v>-0.903</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AA32" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AB32" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC32" s="1" t="n">
@@ -3141,10 +3344,10 @@
         <f aca="false">AF32+AG32</f>
         <v>3.751</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AF32" s="1" t="n">
         <v>3.028</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AG32" s="1" t="n">
         <v>0.723</v>
       </c>
       <c r="AH32" s="1" t="n">
@@ -3157,7 +3360,104 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <f aca="false">(B33*C33*D33)</f>
-        <v>0</v>
+        <v>32768</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <f aca="false">V33+W33</f>
+        <v>5365</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <f aca="false">W33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <f aca="false">R33</f>
+        <v>2618</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <f aca="false">X33</f>
+        <v>32</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <f aca="false">V33+W33</f>
+        <v>5365</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>2618</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>5365</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z33" s="1" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z33))*10^(-3)))</f>
+        <v>225.563909776132</v>
+      </c>
+      <c r="AE33" s="1" t="n">
+        <f aca="false">AF33+AG33</f>
+        <v>3.94</v>
+      </c>
+      <c r="AF33" s="1" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="AG33" s="1" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH33" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI33" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,10 +3491,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="C48" s="1" t="s">

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -335,10 +335,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI48"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH21" activeCellId="0" sqref="AH21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF27" activeCellId="0" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2224,109 +2224,6 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <f aca="false">(B20*C20*D20)</f>
-        <v>8192</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>2048</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <f aca="false">V20+W20</f>
-        <v>20937</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">W20</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <f aca="false">R20</f>
-        <v>16794</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <f aca="false">X20</f>
-        <v>8</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <f aca="false">V20+W20</f>
-        <v>20937</v>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>16794</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>3980</v>
-      </c>
-      <c r="V20" s="1" t="n">
-        <v>20937</v>
-      </c>
-      <c r="W20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="1" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="AA20" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AB20" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC20" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z20))*10^(-3)))</f>
-        <v>262.789067977074</v>
-      </c>
-      <c r="AE20" s="1" t="n">
-        <f aca="false">AF20+AG20</f>
-        <v>3.708</v>
-      </c>
-      <c r="AF20" s="1" t="n">
-        <v>2.985</v>
-      </c>
-      <c r="AG20" s="1" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="AH20" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI20" s="1" t="n">
-        <v>0.098</v>
-      </c>
-    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <f aca="false">(B21*C21*D21)</f>
@@ -2354,14 +2251,14 @@
         <v>1.1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L21" s="1" t="n">
         <f aca="false">V21+W21</f>
-        <v>8769</v>
+        <v>50603</v>
       </c>
       <c r="M21" s="1" t="n">
         <f aca="false">W21</f>
@@ -2369,7 +2266,7 @@
       </c>
       <c r="N21" s="1" t="n">
         <f aca="false">R21</f>
-        <v>8741</v>
+        <v>32733</v>
       </c>
       <c r="O21" s="1" t="n">
         <f aca="false">X21</f>
@@ -2377,69 +2274,275 @@
       </c>
       <c r="Q21" s="1" t="n">
         <f aca="false">V21+W21</f>
-        <v>8769</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>8741</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>1918</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>8769</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>-0.426</v>
-      </c>
-      <c r="AA21" s="0" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="AB21" s="0" t="n">
+        <v>50603</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>32733</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>9570</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>50603</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>-1.088</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AB21" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC21" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z21))*10^(-3)))</f>
-        <v>266.004610748945</v>
+        <v>226.176115803876</v>
       </c>
       <c r="AE21" s="1" t="n">
         <f aca="false">AF21+AG21</f>
-        <v>3.668</v>
-      </c>
-      <c r="AF21" s="0" t="n">
-        <v>2.946</v>
-      </c>
-      <c r="AG21" s="0" t="n">
-        <v>0.722</v>
+        <v>3.3</v>
+      </c>
+      <c r="AF21" s="1" t="n">
+        <v>2.577</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>0.723</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>2.75</v>
       </c>
       <c r="AI21" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <f aca="false">(B22*C22*D22)</f>
+        <v>8192</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <f aca="false">V22+W22</f>
+        <v>20908</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">W22</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <f aca="false">R22</f>
+        <v>16794</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <f aca="false">X22</f>
+        <v>8</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <f aca="false">V22+W22</f>
+        <v>20908</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>16794</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>3985</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <v>20908</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="1" t="n">
+        <v>-0.876</v>
+      </c>
+      <c r="AA22" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB22" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC22" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z22))*10^(-3)))</f>
+        <v>237.567310739924</v>
+      </c>
+      <c r="AE22" s="1" t="n">
+        <f aca="false">AF22+AG22</f>
+        <v>3.214</v>
+      </c>
+      <c r="AF22" s="1" t="n">
+        <v>2.491</v>
+      </c>
+      <c r="AG22" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH22" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI22" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <f aca="false">(B23*C23*D23)</f>
+        <v>8192</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <f aca="false">V23+W23</f>
+        <v>8741</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">W23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <f aca="false">R23</f>
+        <v>8741</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <f aca="false">X23</f>
+        <v>8</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <f aca="false">V23+W23</f>
+        <v>8741</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>8741</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>1837</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <v>8741</v>
+      </c>
+      <c r="W23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="2" t="n">
+        <v>-0.572</v>
+      </c>
+      <c r="AA23" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AB23" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC23" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z23))*10^(-3)))</f>
+        <v>256.060088769683</v>
+      </c>
+      <c r="AE23" s="1" t="n">
+        <f aca="false">AF23+AG23</f>
+        <v>3.137</v>
+      </c>
+      <c r="AF23" s="1" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="AG23" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AH23" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI23" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <f aca="false">(B24*C24*D24)</f>
-        <v>131072</v>
+        <v>8192</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>1</v>
@@ -2451,20 +2554,20 @@
         <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="n">
         <f aca="false">V24+W24</f>
-        <v>3560</v>
+        <v>5358</v>
       </c>
       <c r="M24" s="1" t="n">
         <f aca="false">W24</f>
@@ -2472,489 +2575,77 @@
       </c>
       <c r="N24" s="1" t="n">
         <f aca="false">R24</f>
-        <v>2117</v>
+        <v>4716</v>
       </c>
       <c r="O24" s="1" t="n">
         <f aca="false">X24</f>
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="1" t="n">
         <f aca="false">V24+W24</f>
-        <v>3560</v>
+        <v>5358</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>2117</v>
+        <v>4716</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>1100</v>
+        <v>1043</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>3560</v>
+        <v>5358</v>
       </c>
       <c r="W24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="Z24" s="1" t="n">
-        <v>-1.702</v>
+        <v>-0.16</v>
       </c>
       <c r="AA24" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AB24" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC24" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z24))*10^(-3)))</f>
-        <v>198.596584140067</v>
+        <v>286.259541987464</v>
       </c>
       <c r="AE24" s="1" t="n">
         <f aca="false">AF24+AG24</f>
-        <v>4.015</v>
+        <v>3.107</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>3.289</v>
+        <v>2.385</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.726</v>
+        <v>0.722</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>2.75</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <f aca="false">(B25*C25*D25)</f>
-        <v>65536</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>2048</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <f aca="false">V25+W25</f>
-        <v>3364</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <f aca="false">W25</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <f aca="false">R25</f>
-        <v>2053</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <f aca="false">X25</f>
-        <v>64</v>
-      </c>
-      <c r="Q25" s="1" t="n">
-        <f aca="false">V25+W25</f>
-        <v>3364</v>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>2053</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="U25" s="1" t="n">
-        <v>951</v>
-      </c>
-      <c r="V25" s="1" t="n">
-        <v>3364</v>
-      </c>
-      <c r="W25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z25" s="1" t="n">
-        <v>-1.202</v>
-      </c>
-      <c r="AA25" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AB25" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC25" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z25))*10^(-3)))</f>
-        <v>220.490959872266</v>
-      </c>
-      <c r="AE25" s="1" t="n">
-        <f aca="false">AF25+AG25</f>
-        <v>3.883</v>
-      </c>
-      <c r="AF25" s="1" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="AG25" s="1" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="AH25" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI25" s="1" t="n">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <f aca="false">(B26*C26*D26)</f>
-        <v>32768</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <f aca="false">V26+W26</f>
-        <v>3295</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <f aca="false">W26</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <f aca="false">R26</f>
-        <v>1990</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <f aca="false">X26</f>
-        <v>32</v>
-      </c>
-      <c r="Q26" s="1" t="n">
-        <f aca="false">V26+W26</f>
-        <v>3295</v>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="U26" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="V26" s="1" t="n">
-        <v>3295</v>
-      </c>
-      <c r="W26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z26" s="1" t="n">
-        <v>-0.855</v>
-      </c>
-      <c r="AA26" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB26" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC26" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z26))*10^(-3)))</f>
-        <v>238.758456030551</v>
-      </c>
-      <c r="AE26" s="1" t="n">
-        <f aca="false">AF26+AG26</f>
-        <v>3.761</v>
-      </c>
-      <c r="AF26" s="1" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="AG26" s="1" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="AH26" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI26" s="1" t="n">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <f aca="false">(B27*C27*D27)</f>
-        <v>131072</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <f aca="false">V27+W27</f>
-        <v>2100</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <f aca="false">W27</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <f aca="false">R27</f>
-        <v>1253</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <f aca="false">X27</f>
-        <v>120</v>
-      </c>
-      <c r="Q27" s="1" t="n">
-        <f aca="false">V27+W27</f>
-        <v>2100</v>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>1253</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="V27" s="1" t="n">
-        <v>2100</v>
-      </c>
-      <c r="W27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z27" s="1" t="n">
-        <v>-1.765</v>
-      </c>
-      <c r="AA27" s="1" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AB27" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC27" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z27))*10^(-3)))</f>
-        <v>196.142530239922</v>
-      </c>
-      <c r="AE27" s="1" t="n">
-        <f aca="false">AF27+AG27</f>
-        <v>3.833</v>
-      </c>
-      <c r="AF27" s="1" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="AG27" s="1" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="AH27" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI27" s="1" t="n">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <f aca="false">(B28*C28*D28)</f>
-        <v>65536</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <f aca="false">V28+W28</f>
-        <v>1790</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <f aca="false">W28</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <f aca="false">R28</f>
-        <v>1222</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <f aca="false">X28</f>
-        <v>64</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <f aca="false">V28+W28</f>
-        <v>1790</v>
-      </c>
-      <c r="R28" s="1" t="n">
-        <v>1222</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="V28" s="1" t="n">
-        <v>1790</v>
-      </c>
-      <c r="W28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z28" s="1" t="n">
-        <v>-0.966</v>
-      </c>
-      <c r="AA28" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB28" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC28" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z28))*10^(-3)))</f>
-        <v>232.594200653067</v>
-      </c>
-      <c r="AE28" s="1" t="n">
-        <f aca="false">AF28+AG28</f>
-        <v>3.813</v>
-      </c>
-      <c r="AF28" s="1" t="n">
-        <v>3.089</v>
-      </c>
-      <c r="AG28" s="1" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="AH28" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI28" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <f aca="false">(B29*C29*D29)</f>
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>1</v>
@@ -2979,7 +2670,7 @@
       </c>
       <c r="L29" s="1" t="n">
         <f aca="false">V29+W29</f>
-        <v>1670</v>
+        <v>3560</v>
       </c>
       <c r="M29" s="1" t="n">
         <f aca="false">W29</f>
@@ -2987,59 +2678,59 @@
       </c>
       <c r="N29" s="1" t="n">
         <f aca="false">R29</f>
-        <v>1190</v>
+        <v>2117</v>
       </c>
       <c r="O29" s="1" t="n">
         <f aca="false">X29</f>
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="1" t="n">
         <f aca="false">V29+W29</f>
-        <v>1670</v>
+        <v>3560</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>1190</v>
+        <v>2117</v>
       </c>
       <c r="S29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>479</v>
+        <v>1100</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>1670</v>
+        <v>3560</v>
       </c>
       <c r="W29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>-0.589</v>
+        <v>-1.702</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
       <c r="AB29" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC29" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z29))*10^(-3)))</f>
-        <v>254.950284696651</v>
+        <v>198.596584140067</v>
       </c>
       <c r="AE29" s="1" t="n">
         <f aca="false">AF29+AG29</f>
-        <v>3.711</v>
+        <v>4.015</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>2.988</v>
+        <v>3.289</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>0.723</v>
+        <v>0.726</v>
       </c>
       <c r="AH29" s="1" t="n">
         <v>2.75</v>
@@ -3054,13 +2745,13 @@
         <v>65536</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>2048</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>16</v>
@@ -3082,7 +2773,7 @@
       </c>
       <c r="L30" s="1" t="n">
         <f aca="false">V30+W30</f>
-        <v>3160</v>
+        <v>3364</v>
       </c>
       <c r="M30" s="1" t="n">
         <f aca="false">W30</f>
@@ -3090,7 +2781,7 @@
       </c>
       <c r="N30" s="1" t="n">
         <f aca="false">R30</f>
-        <v>1685</v>
+        <v>2053</v>
       </c>
       <c r="O30" s="1" t="n">
         <f aca="false">X30</f>
@@ -3098,22 +2789,22 @@
       </c>
       <c r="Q30" s="1" t="n">
         <f aca="false">V30+W30</f>
-        <v>3160</v>
+        <v>3364</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>1685</v>
+        <v>2053</v>
       </c>
       <c r="S30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>786</v>
+        <v>951</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>3160</v>
+        <v>3364</v>
       </c>
       <c r="W30" s="1" t="n">
         <v>0</v>
@@ -3122,27 +2813,27 @@
         <v>64</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>-1.367</v>
+        <v>-1.202</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="AB30" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC30" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z30))*10^(-3)))</f>
-        <v>212.750868734223</v>
+        <v>220.490959872266</v>
       </c>
       <c r="AE30" s="1" t="n">
         <f aca="false">AF30+AG30</f>
-        <v>3.83</v>
+        <v>3.883</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>3.106</v>
+        <v>3.158</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>2.75</v>
@@ -3154,16 +2845,16 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <f aca="false">(B31*C31*D31)</f>
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>16</v>
@@ -3185,7 +2876,7 @@
       </c>
       <c r="L31" s="1" t="n">
         <f aca="false">V31+W31</f>
-        <v>5576</v>
+        <v>3295</v>
       </c>
       <c r="M31" s="1" t="n">
         <f aca="false">W31</f>
@@ -3193,59 +2884,59 @@
       </c>
       <c r="N31" s="1" t="n">
         <f aca="false">R31</f>
-        <v>2680</v>
+        <v>1990</v>
       </c>
       <c r="O31" s="1" t="n">
         <f aca="false">X31</f>
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="1" t="n">
         <f aca="false">V31+W31</f>
-        <v>5576</v>
+        <v>3295</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>2680</v>
+        <v>1990</v>
       </c>
       <c r="S31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>1425</v>
+        <v>710</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>5576</v>
+        <v>3295</v>
       </c>
       <c r="W31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>-2.08</v>
+        <v>-0.855</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
       <c r="AB31" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC31" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z31))*10^(-3)))</f>
-        <v>184.729064040546</v>
+        <v>238.758456030551</v>
       </c>
       <c r="AE31" s="1" t="n">
         <f aca="false">AF31+AG31</f>
-        <v>4.032</v>
+        <v>3.761</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>3.306</v>
+        <v>3.038</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>0.726</v>
+        <v>0.723</v>
       </c>
       <c r="AH31" s="1" t="n">
         <v>2.75</v>
@@ -3257,16 +2948,16 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <f aca="false">(B32*C32*D32)</f>
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>1024</v>
+        <v>8192</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>16</v>
@@ -3288,7 +2979,7 @@
       </c>
       <c r="L32" s="1" t="n">
         <f aca="false">V32+W32</f>
-        <v>3060</v>
+        <v>2100</v>
       </c>
       <c r="M32" s="1" t="n">
         <f aca="false">W32</f>
@@ -3296,18 +2987,18 @@
       </c>
       <c r="N32" s="1" t="n">
         <f aca="false">R32</f>
-        <v>1653</v>
+        <v>1253</v>
       </c>
       <c r="O32" s="1" t="n">
         <f aca="false">X32</f>
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="Q32" s="1" t="n">
         <f aca="false">V32+W32</f>
-        <v>3060</v>
+        <v>2100</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>1653</v>
+        <v>1253</v>
       </c>
       <c r="S32" s="1" t="n">
         <v>0</v>
@@ -3316,39 +3007,39 @@
         <v>0</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>676</v>
+        <v>782</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>3060</v>
+        <v>2100</v>
       </c>
       <c r="W32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>-0.903</v>
+        <v>-1.765</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="AB32" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC32" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z32))*10^(-3)))</f>
-        <v>236.053190654151</v>
+        <v>196.142530239922</v>
       </c>
       <c r="AE32" s="1" t="n">
         <f aca="false">AF32+AG32</f>
-        <v>3.751</v>
+        <v>3.833</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>3.028</v>
+        <v>3.108</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>0.723</v>
+        <v>0.725</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>2.75</v>
@@ -3360,16 +3051,16 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <f aca="false">(B33*C33*D33)</f>
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>16</v>
@@ -3391,7 +3082,7 @@
       </c>
       <c r="L33" s="1" t="n">
         <f aca="false">V33+W33</f>
-        <v>5365</v>
+        <v>1790</v>
       </c>
       <c r="M33" s="1" t="n">
         <f aca="false">W33</f>
@@ -3399,59 +3090,59 @@
       </c>
       <c r="N33" s="1" t="n">
         <f aca="false">R33</f>
-        <v>2618</v>
+        <v>1222</v>
       </c>
       <c r="O33" s="1" t="n">
         <f aca="false">X33</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q33" s="1" t="n">
         <f aca="false">V33+W33</f>
-        <v>5365</v>
+        <v>1790</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>2618</v>
+        <v>1222</v>
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>1010</v>
+        <v>571</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>5365</v>
+        <v>1790</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>-1.1</v>
+        <v>-0.966</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="AB33" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC33" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z33))*10^(-3)))</f>
-        <v>225.563909776132</v>
+        <v>232.594200653067</v>
       </c>
       <c r="AE33" s="1" t="n">
         <f aca="false">AF33+AG33</f>
-        <v>3.94</v>
+        <v>3.813</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>3.215</v>
+        <v>3.089</v>
       </c>
       <c r="AG33" s="1" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>2.75</v>
@@ -3463,30 +3154,545 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <f aca="false">(B34*C34*D34)</f>
-        <v>0</v>
+        <v>32768</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <f aca="false">V34+W34</f>
+        <v>1670</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">W34</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <f aca="false">R34</f>
+        <v>1190</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <f aca="false">X34</f>
+        <v>32</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <f aca="false">V34+W34</f>
+        <v>1670</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>1670</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z34" s="1" t="n">
+        <v>-0.589</v>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC34" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z34))*10^(-3)))</f>
+        <v>254.950284696651</v>
+      </c>
+      <c r="AE34" s="1" t="n">
+        <f aca="false">AF34+AG34</f>
+        <v>3.711</v>
+      </c>
+      <c r="AF34" s="1" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="AG34" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH34" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI34" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <f aca="false">(B35*C35*D35)</f>
-        <v>0</v>
+        <v>65536</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <f aca="false">V35+W35</f>
+        <v>3160</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <f aca="false">W35</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <f aca="false">R35</f>
+        <v>1685</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <f aca="false">X35</f>
+        <v>64</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <f aca="false">V35+W35</f>
+        <v>3160</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>1685</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>3160</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z35" s="1" t="n">
+        <v>-1.367</v>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC35" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z35))*10^(-3)))</f>
+        <v>212.750868734223</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <f aca="false">AF35+AG35</f>
+        <v>3.83</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="AG35" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH35" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI35" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <f aca="false">(B36*C36*D36)</f>
-        <v>0</v>
+        <v>131072</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <f aca="false">V36+W36</f>
+        <v>5576</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <f aca="false">W36</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <f aca="false">R36</f>
+        <v>2680</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <f aca="false">X36</f>
+        <v>120</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <f aca="false">V36+W36</f>
+        <v>5576</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>2680</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>1425</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>5576</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z36" s="1" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AA36" s="1" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC36" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z36))*10^(-3)))</f>
+        <v>184.729064040546</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <f aca="false">AF36+AG36</f>
+        <v>4.032</v>
+      </c>
+      <c r="AF36" s="1" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="AG36" s="1" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="AH36" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI36" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <f aca="false">(B37*C37*D37)</f>
-        <v>0</v>
+        <v>32768</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <f aca="false">V37+W37</f>
+        <v>3060</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <f aca="false">W37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <f aca="false">R37</f>
+        <v>1653</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <f aca="false">X37</f>
+        <v>32</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <f aca="false">V37+W37</f>
+        <v>3060</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>1653</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>3060</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z37" s="1" t="n">
+        <v>-0.903</v>
+      </c>
+      <c r="AA37" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB37" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC37" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z37))*10^(-3)))</f>
+        <v>236.053190654151</v>
+      </c>
+      <c r="AE37" s="1" t="n">
+        <f aca="false">AF37+AG37</f>
+        <v>3.751</v>
+      </c>
+      <c r="AF37" s="1" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="AG37" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH37" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI37" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <f aca="false">(B38*C38*D38)</f>
+        <v>32768</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <f aca="false">V38+W38</f>
+        <v>5365</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <f aca="false">W38</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <f aca="false">R38</f>
+        <v>2618</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <f aca="false">X38</f>
+        <v>32</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <f aca="false">V38+W38</f>
+        <v>5365</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>2618</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <v>5365</v>
+      </c>
+      <c r="W38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z38" s="1" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AA38" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AB38" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC38" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z38))*10^(-3)))</f>
+        <v>225.563909776132</v>
+      </c>
+      <c r="AE38" s="1" t="n">
+        <f aca="false">AF38+AG38</f>
+        <v>3.94</v>
+      </c>
+      <c r="AF38" s="1" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="AG38" s="1" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH38" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI38" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <f aca="false">(B39*C39*D39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <f aca="false">(B40*C40*D40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <f aca="false">(B41*C41*D41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <f aca="false">(B42*C42*D42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <f aca="false">(B43*C43*D43)</f>
         <v>0</v>
       </c>
     </row>
@@ -3499,6 +3705,50 @@
       </c>
       <c r="C48" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="1" t="n">
+        <v>8741</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>1837</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>8741</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>-0.572</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="U52" s="1" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="V52" s="1" t="n">
+        <v>0.722</v>
       </c>
     </row>
   </sheetData>

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -118,6 +118,9 @@
     <t xml:space="preserve">Second</t>
   </si>
   <si>
+    <t xml:space="preserve">new Vivado strategy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Standard</t>
   </si>
   <si>
@@ -199,12 +202,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,10 +342,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI52"/>
+  <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF27" activeCellId="0" sqref="AF27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -444,13 +451,13 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <f aca="false">(B2*C2*D2)</f>
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -473,9 +480,12 @@
       <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L2" s="1" t="n">
         <f aca="false">V2+W2</f>
-        <v>5834</v>
+        <v>6381</v>
       </c>
       <c r="M2" s="1" t="n">
         <f aca="false">W2</f>
@@ -483,18 +493,18 @@
       </c>
       <c r="N2" s="1" t="n">
         <f aca="false">R2</f>
-        <v>5161</v>
+        <v>5269</v>
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">X2</f>
-        <v>158.5</v>
+        <v>270.5</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">V2+W2</f>
-        <v>5834</v>
+        <v>6381</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>5161</v>
+        <v>5269</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>0</v>
@@ -503,39 +513,39 @@
         <v>0</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>1675</v>
+        <v>2097</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>5834</v>
+        <v>6381</v>
       </c>
       <c r="W2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>158.5</v>
+        <v>270.5</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>-2.09</v>
+        <v>-2.411</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="AB2" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC2" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z2))*10^(-3)))</f>
-        <v>184.388444991914</v>
+        <v>174.084605119098</v>
       </c>
       <c r="AE2" s="1" t="n">
         <f aca="false">AF2+AG2</f>
-        <v>4.064</v>
+        <v>3.642</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>3.338</v>
+        <v>2.914</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>0.726</v>
+        <v>0.728</v>
       </c>
       <c r="AH2" s="1" t="n">
         <v>2.75</v>
@@ -547,13 +557,13 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <f aca="false">(B3*C3*D3)</f>
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
@@ -576,9 +586,12 @@
       <c r="J3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" s="1" t="n">
         <f aca="false">V3+W3</f>
-        <v>4627</v>
+        <v>5869</v>
       </c>
       <c r="M3" s="1" t="n">
         <f aca="false">W3</f>
@@ -586,18 +599,18 @@
       </c>
       <c r="N3" s="1" t="n">
         <f aca="false">R3</f>
-        <v>5010</v>
+        <v>5156</v>
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">X3</f>
-        <v>64</v>
+        <v>158.5</v>
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">V3+W3</f>
-        <v>4627</v>
+        <v>5869</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>5010</v>
+        <v>5156</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>0</v>
@@ -606,39 +619,39 @@
         <v>0</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>988</v>
+        <v>1784</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>4627</v>
+        <v>5869</v>
       </c>
       <c r="W3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>64</v>
+        <v>158.5</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>-0.948</v>
+        <v>-1.854</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB3" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC3" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z3))*10^(-3)))</f>
-        <v>233.572095922093</v>
+        <v>192.777277986074</v>
       </c>
       <c r="AE3" s="1" t="n">
         <f aca="false">AF3+AG3</f>
-        <v>3.861</v>
+        <v>3.553</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>3.137</v>
+        <v>2.827</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>0.724</v>
+        <v>0.726</v>
       </c>
       <c r="AH3" s="1" t="n">
         <v>2.75</v>
@@ -650,13 +663,13 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <f aca="false">(B4*C4*D4)</f>
-        <v>32768</v>
-      </c>
-      <c r="B4" s="1" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1024</v>
+      <c r="C4" s="0" t="n">
+        <v>2048</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1</v>
@@ -667,7 +680,7 @@
       <c r="F4" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="1" t="n">
@@ -679,9 +692,12 @@
       <c r="J4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L4" s="1" t="n">
         <f aca="false">V4+W4</f>
-        <v>4434</v>
+        <v>4648</v>
       </c>
       <c r="M4" s="1" t="n">
         <f aca="false">W4</f>
@@ -689,59 +705,59 @@
       </c>
       <c r="N4" s="1" t="n">
         <f aca="false">R4</f>
-        <v>4880</v>
+        <v>5011</v>
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">X4</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">V4+W4</f>
-        <v>4434</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>4880</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>954</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>4434</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>0.011</v>
+        <v>4648</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>5011</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1125</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>4648</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>0.002</v>
       </c>
       <c r="AB4" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC4" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z4))*10^(-3)))</f>
-        <v>246.103363414652</v>
+        <v>236.220472442805</v>
       </c>
       <c r="AE4" s="1" t="n">
         <f aca="false">AF4+AG4</f>
-        <v>3.742</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>3.019</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>0.723</v>
+        <v>3.338</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>2.614</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>0.724</v>
       </c>
       <c r="AH4" s="1" t="n">
         <v>2.75</v>
@@ -753,13 +769,13 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <f aca="false">(B5*C5*D5)</f>
-        <v>131072</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>8192</v>
+        <v>32768</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1024</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
@@ -770,7 +786,7 @@
       <c r="F5" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="1" t="n">
@@ -782,9 +798,12 @@
       <c r="J5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L5" s="1" t="n">
         <f aca="false">V5+W5</f>
-        <v>3369</v>
+        <v>4436</v>
       </c>
       <c r="M5" s="1" t="n">
         <f aca="false">W5</f>
@@ -792,59 +811,59 @@
       </c>
       <c r="N5" s="1" t="n">
         <f aca="false">R5</f>
-        <v>2833</v>
+        <v>4880</v>
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">X5</f>
-        <v>134.5</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">V5+W5</f>
-        <v>3369</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>2833</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>949</v>
-      </c>
-      <c r="V5" s="1" t="n">
-        <v>3369</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="Z5" s="1" t="n">
-        <v>-1.278</v>
-      </c>
-      <c r="AA5" s="1" t="n">
-        <v>0.01</v>
+        <v>4436</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>4880</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>1001</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>4436</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>-0.816</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AB5" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC5" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z5))*10^(-3)))</f>
-        <v>216.857018940414</v>
+        <v>241.002570696023</v>
       </c>
       <c r="AE5" s="1" t="n">
         <f aca="false">AF5+AG5</f>
-        <v>3.882</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="AG5" s="1" t="n">
-        <v>0.725</v>
+        <v>3.229</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>0.723</v>
       </c>
       <c r="AH5" s="1" t="n">
         <v>2.75</v>
@@ -856,14 +875,9 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <f aca="false">(B6*C6*D6)</f>
-        <v>65536</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>4096</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C6" s="0"/>
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
@@ -873,7 +887,7 @@
       <c r="F6" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="1" t="n">
@@ -885,9 +899,12 @@
       <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L6" s="1" t="n">
         <f aca="false">V6+W6</f>
-        <v>3016</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1" t="n">
         <f aca="false">W6</f>
@@ -895,59 +912,26 @@
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">R6</f>
-        <v>2779</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">X6</f>
-        <v>78.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">V6+W6</f>
-        <v>3016</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>2779</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>815</v>
-      </c>
-      <c r="V6" s="1" t="n">
-        <v>3016</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="Z6" s="1" t="n">
-        <v>-0.844</v>
-      </c>
-      <c r="AA6" s="1" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC6" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z6))*10^(-3)))</f>
-        <v>239.38716884966</v>
+        <v>300.000000003</v>
       </c>
       <c r="AE6" s="1" t="n">
         <f aca="false">AF6+AG6</f>
-        <v>3.823</v>
-      </c>
-      <c r="AF6" s="1" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="AG6" s="1" t="n">
-        <v>0.724</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>2.75</v>
@@ -959,14 +943,9 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <f aca="false">(B7*C7*D7)</f>
-        <v>32768</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>2048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C7" s="0"/>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
@@ -976,7 +955,7 @@
       <c r="F7" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="1" t="n">
@@ -988,9 +967,12 @@
       <c r="J7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L7" s="1" t="n">
         <f aca="false">V7+W7</f>
-        <v>2441</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1" t="n">
         <f aca="false">W7</f>
@@ -998,59 +980,26 @@
       </c>
       <c r="N7" s="1" t="n">
         <f aca="false">R7</f>
-        <v>2703</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">X7</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">V7+W7</f>
-        <v>2441</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <v>2703</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="V7" s="1" t="n">
-        <v>2441</v>
-      </c>
-      <c r="W7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="1" t="n">
-        <v>-0.502</v>
-      </c>
-      <c r="AA7" s="1" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC7" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z7))*10^(-3)))</f>
-        <v>260.733530334267</v>
+        <v>300.000000003</v>
       </c>
       <c r="AE7" s="1" t="n">
         <f aca="false">AF7+AG7</f>
-        <v>3.709</v>
-      </c>
-      <c r="AF7" s="1" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="AG7" s="1" t="n">
-        <v>0.723</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>2.75</v>
@@ -1060,424 +1009,24 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <f aca="false">(B8*C8*D8)</f>
-        <v>16384</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <f aca="false">V8+W8</f>
-        <v>2364</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">W8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <f aca="false">R8</f>
-        <v>2643</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <f aca="false">X8</f>
-        <v>16</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <f aca="false">V8+W8</f>
-        <v>2364</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>2643</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="V8" s="1" t="n">
-        <v>2364</v>
-      </c>
-      <c r="W8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="1" t="n">
-        <v>-0.339</v>
-      </c>
-      <c r="AA8" s="1" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="AB8" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC8" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z8))*10^(-3)))</f>
-        <v>272.306435511231</v>
-      </c>
-      <c r="AE8" s="1" t="n">
-        <f aca="false">AF8+AG8</f>
-        <v>3.649</v>
-      </c>
-      <c r="AF8" s="1" t="n">
-        <v>2.927</v>
-      </c>
-      <c r="AG8" s="1" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="AH8" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI8" s="1" t="n">
-        <v>0.098</v>
-      </c>
+      <c r="C8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <f aca="false">(B9*C9*D9)</f>
-        <v>8192</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <f aca="false">V9+W9</f>
-        <v>2295</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">W9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <f aca="false">R9</f>
-        <v>2576</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <f aca="false">X9</f>
-        <v>8</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <f aca="false">V9+W9</f>
-        <v>2295</v>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>2576</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="V9" s="1" t="n">
-        <v>2295</v>
-      </c>
-      <c r="W9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="1" t="n">
-        <v>-0.267</v>
-      </c>
-      <c r="AA9" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z9))*10^(-3)))</f>
-        <v>277.752059997017</v>
-      </c>
-      <c r="AE9" s="1" t="n">
-        <f aca="false">AF9+AG9</f>
-        <v>3.635</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>2.913</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="AH9" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI9" s="1" t="n">
-        <v>0.098</v>
-      </c>
+      <c r="C9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <f aca="false">(B10*C10*D10)</f>
-        <v>131072</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <f aca="false">V10+W10</f>
-        <v>2065</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">W10</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <f aca="false">R10</f>
-        <v>1639</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <f aca="false">X10</f>
-        <v>118.5</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <f aca="false">V10+W10</f>
-        <v>2065</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>1639</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="V10" s="1" t="n">
-        <v>2065</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <v>118.5</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>-1.376</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z10))*10^(-3)))</f>
-        <v>212.344280862205</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <f aca="false">AF10+AG10</f>
-        <v>3.778</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <v>3.054</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="AH10" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI10" s="1" t="n">
-        <v>0.098</v>
-      </c>
+      <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <f aca="false">(B11*C11*D11)</f>
-        <v>65536</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <f aca="false">V11+W11</f>
-        <v>1713</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">W11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <f aca="false">R11</f>
-        <v>1608</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <f aca="false">X11</f>
-        <v>66.5</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <f aca="false">V11+W11</f>
-        <v>1713</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>1608</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="V11" s="1" t="n">
-        <v>1713</v>
-      </c>
-      <c r="W11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="Z11" s="1" t="n">
-        <v>-0.632</v>
-      </c>
-      <c r="AA11" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AB11" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC11" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z11))*10^(-3)))</f>
-        <v>252.185608610055</v>
-      </c>
-      <c r="AE11" s="1" t="n">
-        <f aca="false">AF11+AG11</f>
-        <v>3.7</v>
-      </c>
-      <c r="AF11" s="1" t="n">
-        <v>2.977</v>
-      </c>
-      <c r="AG11" s="1" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="AH11" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI11" s="1" t="n">
-        <v>0.098</v>
-      </c>
+      <c r="C11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <f aca="false">(B12*C12*D12)</f>
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>4096</v>
@@ -1505,7 +1054,7 @@
       </c>
       <c r="L12" s="1" t="n">
         <f aca="false">V12+W12</f>
-        <v>1599</v>
+        <v>5834</v>
       </c>
       <c r="M12" s="1" t="n">
         <f aca="false">W12</f>
@@ -1513,18 +1062,18 @@
       </c>
       <c r="N12" s="1" t="n">
         <f aca="false">R12</f>
-        <v>1567</v>
+        <v>5161</v>
       </c>
       <c r="O12" s="1" t="n">
         <f aca="false">X12</f>
-        <v>38.5</v>
+        <v>158.5</v>
       </c>
       <c r="Q12" s="1" t="n">
         <f aca="false">V12+W12</f>
-        <v>1599</v>
+        <v>5834</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>1567</v>
+        <v>5161</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>0</v>
@@ -1533,39 +1082,39 @@
         <v>0</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>399</v>
+        <v>1675</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>1599</v>
+        <v>5834</v>
       </c>
       <c r="W12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>38.5</v>
+        <v>158.5</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>-0.484</v>
+        <v>-2.09</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="AB12" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC12" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z12))*10^(-3)))</f>
-        <v>261.962975901694</v>
+        <v>184.388444991914</v>
       </c>
       <c r="AE12" s="1" t="n">
         <f aca="false">AF12+AG12</f>
-        <v>3.681</v>
+        <v>4.064</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>2.958</v>
+        <v>3.338</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.723</v>
+        <v>0.726</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>2.75</v>
@@ -1577,10 +1126,10 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <f aca="false">(B13*C13*D13)</f>
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>2048</v>
@@ -1608,7 +1157,7 @@
       </c>
       <c r="L13" s="1" t="n">
         <f aca="false">V13+W13</f>
-        <v>1324</v>
+        <v>4627</v>
       </c>
       <c r="M13" s="1" t="n">
         <f aca="false">W13</f>
@@ -1616,18 +1165,18 @@
       </c>
       <c r="N13" s="1" t="n">
         <f aca="false">R13</f>
-        <v>1324</v>
+        <v>5010</v>
       </c>
       <c r="O13" s="1" t="n">
         <f aca="false">X13</f>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="1" t="n">
         <f aca="false">V13+W13</f>
-        <v>1324</v>
+        <v>4627</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>1324</v>
+        <v>5010</v>
       </c>
       <c r="S13" s="1" t="n">
         <v>0</v>
@@ -1636,39 +1185,39 @@
         <v>0</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>293</v>
+        <v>988</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>1324</v>
+        <v>4627</v>
       </c>
       <c r="W13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.948</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC13" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z13))*10^(-3)))</f>
-        <v>302.358395487829</v>
+        <v>233.572095922093</v>
       </c>
       <c r="AE13" s="1" t="n">
         <f aca="false">AF13+AG13</f>
-        <v>3.63</v>
+        <v>3.861</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>2.908</v>
+        <v>3.137</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>2.75</v>
@@ -1680,10 +1229,10 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <f aca="false">(B14*C14*D14)</f>
-        <v>8192</v>
+        <v>32768</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1024</v>
@@ -1697,7 +1246,7 @@
       <c r="F14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="1" t="n">
@@ -1711,7 +1260,7 @@
       </c>
       <c r="L14" s="1" t="n">
         <f aca="false">V14+W14</f>
-        <v>1295</v>
+        <v>4434</v>
       </c>
       <c r="M14" s="1" t="n">
         <f aca="false">W14</f>
@@ -1719,18 +1268,18 @@
       </c>
       <c r="N14" s="1" t="n">
         <f aca="false">R14</f>
-        <v>1489</v>
+        <v>4880</v>
       </c>
       <c r="O14" s="1" t="n">
         <f aca="false">X14</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="1" t="n">
         <f aca="false">V14+W14</f>
-        <v>1295</v>
+        <v>4434</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>1489</v>
+        <v>4880</v>
       </c>
       <c r="S14" s="1" t="n">
         <v>0</v>
@@ -1739,39 +1288,39 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>281</v>
+        <v>954</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>1295</v>
+        <v>4434</v>
       </c>
       <c r="W14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X14" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Z14" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.73</v>
       </c>
       <c r="AA14" s="1" t="n">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="AB14" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC14" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z14))*10^(-3)))</f>
-        <v>300.090027011104</v>
+        <v>246.103363414652</v>
       </c>
       <c r="AE14" s="1" t="n">
         <f aca="false">AF14+AG14</f>
-        <v>3.612</v>
+        <v>3.742</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>2.89</v>
+        <v>3.019</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>2.75</v>
@@ -1783,13 +1332,13 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <f aca="false">(B15*C15*D15)</f>
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
@@ -1800,7 +1349,7 @@
       <c r="F15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="1" t="n">
@@ -1814,7 +1363,7 @@
       </c>
       <c r="L15" s="1" t="n">
         <f aca="false">V15+W15</f>
-        <v>1082</v>
+        <v>3369</v>
       </c>
       <c r="M15" s="1" t="n">
         <f aca="false">W15</f>
@@ -1822,18 +1371,18 @@
       </c>
       <c r="N15" s="1" t="n">
         <f aca="false">R15</f>
-        <v>1012</v>
+        <v>2833</v>
       </c>
       <c r="O15" s="1" t="n">
         <f aca="false">X15</f>
-        <v>58.5</v>
+        <v>134.5</v>
       </c>
       <c r="Q15" s="1" t="n">
         <f aca="false">V15+W15</f>
-        <v>1082</v>
+        <v>3369</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>1012</v>
+        <v>2833</v>
       </c>
       <c r="S15" s="1" t="n">
         <v>0</v>
@@ -1842,39 +1391,39 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>397</v>
+        <v>949</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>1082</v>
+        <v>3369</v>
       </c>
       <c r="W15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>58.5</v>
+        <v>134.5</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>-0.692</v>
+        <v>-1.278</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="AB15" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC15" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z15))*10^(-3)))</f>
-        <v>248.426631336936</v>
+        <v>216.857018940414</v>
       </c>
       <c r="AE15" s="1" t="n">
         <f aca="false">AF15+AG15</f>
-        <v>3.681</v>
+        <v>3.882</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>2.959</v>
+        <v>3.157</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>0.722</v>
+        <v>0.725</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>2.75</v>
@@ -1886,13 +1435,13 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">(B16*C16*D16)</f>
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>1</v>
@@ -1903,7 +1452,7 @@
       <c r="F16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="1" t="n">
@@ -1917,7 +1466,7 @@
       </c>
       <c r="L16" s="1" t="n">
         <f aca="false">V16+W16</f>
-        <v>992</v>
+        <v>3016</v>
       </c>
       <c r="M16" s="1" t="n">
         <f aca="false">W16</f>
@@ -1925,18 +1474,18 @@
       </c>
       <c r="N16" s="1" t="n">
         <f aca="false">R16</f>
-        <v>995</v>
+        <v>2779</v>
       </c>
       <c r="O16" s="1" t="n">
         <f aca="false">X16</f>
-        <v>32.5</v>
+        <v>78.5</v>
       </c>
       <c r="Q16" s="1" t="n">
         <f aca="false">V16+W16</f>
-        <v>992</v>
+        <v>3016</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>995</v>
+        <v>2779</v>
       </c>
       <c r="S16" s="1" t="n">
         <v>0</v>
@@ -1945,39 +1494,39 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>297</v>
+        <v>815</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>992</v>
+        <v>3016</v>
       </c>
       <c r="W16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>32.5</v>
+        <v>78.5</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>-0.392</v>
+        <v>-0.844</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="AB16" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC16" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z16))*10^(-3)))</f>
-        <v>268.43235504893</v>
+        <v>239.38716884966</v>
       </c>
       <c r="AE16" s="1" t="n">
         <f aca="false">AF16+AG16</f>
-        <v>3.648</v>
+        <v>3.823</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>2.925</v>
+        <v>3.099</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="AH16" s="1" t="n">
         <v>2.75</v>
@@ -1989,13 +1538,13 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <f aca="false">(B17*C17*D17)</f>
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1</v>
@@ -2006,7 +1555,7 @@
       <c r="F17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="1" t="n">
@@ -2020,7 +1569,7 @@
       </c>
       <c r="L17" s="1" t="n">
         <f aca="false">V17+W17</f>
-        <v>914</v>
+        <v>2441</v>
       </c>
       <c r="M17" s="1" t="n">
         <f aca="false">W17</f>
@@ -2028,18 +1577,18 @@
       </c>
       <c r="N17" s="1" t="n">
         <f aca="false">R17</f>
-        <v>971</v>
+        <v>2703</v>
       </c>
       <c r="O17" s="1" t="n">
         <f aca="false">X17</f>
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="1" t="n">
         <f aca="false">V17+W17</f>
-        <v>914</v>
+        <v>2441</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>971</v>
+        <v>2703</v>
       </c>
       <c r="S17" s="1" t="n">
         <v>0</v>
@@ -2048,39 +1597,39 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>221</v>
+        <v>602</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>914</v>
+        <v>2441</v>
       </c>
       <c r="W17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>-0.121</v>
+        <v>-0.502</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="AB17" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC17" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z17))*10^(-3)))</f>
-        <v>289.491460004723</v>
+        <v>260.733530334267</v>
       </c>
       <c r="AE17" s="1" t="n">
         <f aca="false">AF17+AG17</f>
-        <v>3.622</v>
+        <v>3.709</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>2.9</v>
+        <v>2.986</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="AH17" s="1" t="n">
         <v>2.75</v>
@@ -2092,13 +1641,13 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <f aca="false">(B18*C18*D18)</f>
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>1</v>
@@ -2123,7 +1672,7 @@
       </c>
       <c r="L18" s="1" t="n">
         <f aca="false">V18+W18</f>
-        <v>802</v>
+        <v>2364</v>
       </c>
       <c r="M18" s="1" t="n">
         <f aca="false">W18</f>
@@ -2131,18 +1680,18 @@
       </c>
       <c r="N18" s="1" t="n">
         <f aca="false">R18</f>
-        <v>975</v>
+        <v>2643</v>
       </c>
       <c r="O18" s="1" t="n">
         <f aca="false">X18</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="1" t="n">
         <f aca="false">V18+W18</f>
-        <v>802</v>
+        <v>2364</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>975</v>
+        <v>2643</v>
       </c>
       <c r="S18" s="1" t="n">
         <v>0</v>
@@ -2151,36 +1700,36 @@
         <v>0</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>169</v>
+        <v>552</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>802</v>
+        <v>2364</v>
       </c>
       <c r="W18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>0.161</v>
+        <v>-0.339</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="AB18" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC18" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z18))*10^(-3)))</f>
-        <v>315.22538615441</v>
+        <v>272.306435511231</v>
       </c>
       <c r="AE18" s="1" t="n">
         <f aca="false">AF18+AG18</f>
-        <v>3.594</v>
+        <v>3.649</v>
       </c>
       <c r="AF18" s="1" t="n">
-        <v>2.872</v>
+        <v>2.927</v>
       </c>
       <c r="AG18" s="1" t="n">
         <v>0.722</v>
@@ -2193,47 +1742,221 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
+      <c r="A19" s="1" t="n">
+        <f aca="false">(B19*C19*D19)</f>
+        <v>8192</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">V19+W19</f>
+        <v>2295</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">W19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <f aca="false">R19</f>
+        <v>2576</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <f aca="false">X19</f>
+        <v>8</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <f aca="false">V19+W19</f>
+        <v>2295</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>2576</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <v>2295</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>-0.267</v>
+      </c>
+      <c r="AA19" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z19))*10^(-3)))</f>
+        <v>277.752059997017</v>
+      </c>
+      <c r="AE19" s="1" t="n">
+        <f aca="false">AF19+AG19</f>
+        <v>3.635</v>
+      </c>
+      <c r="AF19" s="1" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="AG19" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AH19" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI19" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <f aca="false">(B20*C20*D20)</f>
+        <v>131072</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">V20+W20</f>
+        <v>2065</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">W20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <f aca="false">R20</f>
+        <v>1639</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <f aca="false">X20</f>
+        <v>118.5</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <f aca="false">V20+W20</f>
+        <v>2065</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>1639</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>2065</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>-1.376</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z20))*10^(-3)))</f>
+        <v>212.344280862205</v>
+      </c>
+      <c r="AE20" s="1" t="n">
+        <f aca="false">AF20+AG20</f>
+        <v>3.778</v>
+      </c>
+      <c r="AF20" s="1" t="n">
+        <v>3.054</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH20" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI20" s="1" t="n">
+        <v>0.098</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <f aca="false">(B21*C21*D21)</f>
+        <v>65536</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>8192</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>2048</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>1</v>
@@ -2244,21 +1967,21 @@
       <c r="F21" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1024</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L21" s="1" t="n">
         <f aca="false">V21+W21</f>
-        <v>50603</v>
+        <v>1713</v>
       </c>
       <c r="M21" s="1" t="n">
         <f aca="false">W21</f>
@@ -2266,18 +1989,18 @@
       </c>
       <c r="N21" s="1" t="n">
         <f aca="false">R21</f>
-        <v>32733</v>
+        <v>1608</v>
       </c>
       <c r="O21" s="1" t="n">
         <f aca="false">X21</f>
-        <v>8</v>
+        <v>66.5</v>
       </c>
       <c r="Q21" s="1" t="n">
         <f aca="false">V21+W21</f>
-        <v>50603</v>
+        <v>1713</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>32733</v>
+        <v>1608</v>
       </c>
       <c r="S21" s="1" t="n">
         <v>0</v>
@@ -2286,36 +2009,36 @@
         <v>0</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>9570</v>
+        <v>500</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>50603</v>
+        <v>1713</v>
       </c>
       <c r="W21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>8</v>
+        <v>66.5</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>-1.088</v>
+        <v>-0.632</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AB21" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC21" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z21))*10^(-3)))</f>
-        <v>226.176115803876</v>
+        <v>252.185608610055</v>
       </c>
       <c r="AE21" s="1" t="n">
         <f aca="false">AF21+AG21</f>
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>2.577</v>
+        <v>2.977</v>
       </c>
       <c r="AG21" s="1" t="n">
         <v>0.723</v>
@@ -2330,13 +2053,13 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <f aca="false">(B22*C22*D22)</f>
-        <v>8192</v>
+        <v>32768</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>1</v>
@@ -2354,14 +2077,14 @@
         <v>1.1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>512</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="n">
         <f aca="false">V22+W22</f>
-        <v>20908</v>
+        <v>1599</v>
       </c>
       <c r="M22" s="1" t="n">
         <f aca="false">W22</f>
@@ -2369,18 +2092,18 @@
       </c>
       <c r="N22" s="1" t="n">
         <f aca="false">R22</f>
-        <v>16794</v>
+        <v>1567</v>
       </c>
       <c r="O22" s="1" t="n">
         <f aca="false">X22</f>
-        <v>8</v>
+        <v>38.5</v>
       </c>
       <c r="Q22" s="1" t="n">
         <f aca="false">V22+W22</f>
-        <v>20908</v>
+        <v>1599</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>16794</v>
+        <v>1567</v>
       </c>
       <c r="S22" s="1" t="n">
         <v>0</v>
@@ -2389,36 +2112,36 @@
         <v>0</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>3985</v>
+        <v>399</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>20908</v>
+        <v>1599</v>
       </c>
       <c r="W22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>8</v>
+        <v>38.5</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>-0.876</v>
+        <v>-0.484</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AB22" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC22" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z22))*10^(-3)))</f>
-        <v>237.567310739924</v>
+        <v>261.962975901694</v>
       </c>
       <c r="AE22" s="1" t="n">
         <f aca="false">AF22+AG22</f>
-        <v>3.214</v>
+        <v>3.681</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>2.491</v>
+        <v>2.958</v>
       </c>
       <c r="AG22" s="1" t="n">
         <v>0.723</v>
@@ -2433,10 +2156,10 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <f aca="false">(B23*C23*D23)</f>
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>2048</v>
@@ -2457,14 +2180,14 @@
         <v>1.1</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="1" t="n">
         <f aca="false">V23+W23</f>
-        <v>8741</v>
+        <v>1324</v>
       </c>
       <c r="M23" s="1" t="n">
         <f aca="false">W23</f>
@@ -2472,18 +2195,18 @@
       </c>
       <c r="N23" s="1" t="n">
         <f aca="false">R23</f>
-        <v>8741</v>
+        <v>1324</v>
       </c>
       <c r="O23" s="1" t="n">
         <f aca="false">X23</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="1" t="n">
         <f aca="false">V23+W23</f>
-        <v>8741</v>
+        <v>1324</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>8741</v>
+        <v>1324</v>
       </c>
       <c r="S23" s="1" t="n">
         <v>0</v>
@@ -2492,36 +2215,36 @@
         <v>0</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>1837</v>
+        <v>293</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>8741</v>
+        <v>1324</v>
       </c>
       <c r="W23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="2" t="n">
-        <v>-0.572</v>
+        <v>16</v>
+      </c>
+      <c r="Z23" s="1" t="n">
+        <v>0.026</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="AB23" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC23" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z23))*10^(-3)))</f>
-        <v>256.060088769683</v>
+        <v>302.358395487829</v>
       </c>
       <c r="AE23" s="1" t="n">
         <f aca="false">AF23+AG23</f>
-        <v>3.137</v>
+        <v>3.63</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>2.415</v>
+        <v>2.908</v>
       </c>
       <c r="AG23" s="1" t="n">
         <v>0.722</v>
@@ -2539,10 +2262,10 @@
         <v>8192</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>1</v>
@@ -2560,14 +2283,14 @@
         <v>1.1</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="n">
         <f aca="false">V24+W24</f>
-        <v>5358</v>
+        <v>1295</v>
       </c>
       <c r="M24" s="1" t="n">
         <f aca="false">W24</f>
@@ -2575,7 +2298,7 @@
       </c>
       <c r="N24" s="1" t="n">
         <f aca="false">R24</f>
-        <v>4716</v>
+        <v>1489</v>
       </c>
       <c r="O24" s="1" t="n">
         <f aca="false">X24</f>
@@ -2583,10 +2306,10 @@
       </c>
       <c r="Q24" s="1" t="n">
         <f aca="false">V24+W24</f>
-        <v>5358</v>
+        <v>1295</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>4716</v>
+        <v>1489</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>0</v>
@@ -2595,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>1043</v>
+        <v>281</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>5358</v>
+        <v>1295</v>
       </c>
       <c r="W24" s="1" t="n">
         <v>0</v>
@@ -2607,24 +2330,24 @@
         <v>8</v>
       </c>
       <c r="Z24" s="1" t="n">
-        <v>-0.16</v>
+        <v>0.001</v>
       </c>
       <c r="AA24" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AB24" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC24" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z24))*10^(-3)))</f>
-        <v>286.259541987464</v>
+        <v>300.090027011104</v>
       </c>
       <c r="AE24" s="1" t="n">
         <f aca="false">AF24+AG24</f>
-        <v>3.107</v>
+        <v>3.612</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>2.385</v>
+        <v>2.89</v>
       </c>
       <c r="AG24" s="1" t="n">
         <v>0.722</v>
@@ -2636,222 +2359,460 @@
         <v>0.098</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <f aca="false">(B25*C25*D25)</f>
+        <v>65536</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <f aca="false">V25+W25</f>
+        <v>1082</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">W25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <f aca="false">R25</f>
+        <v>1012</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <f aca="false">X25</f>
+        <v>58.5</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <f aca="false">V25+W25</f>
+        <v>1082</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="W25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="Z25" s="1" t="n">
+        <v>-0.692</v>
+      </c>
+      <c r="AA25" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AB25" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC25" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z25))*10^(-3)))</f>
+        <v>248.426631336936</v>
+      </c>
+      <c r="AE25" s="1" t="n">
+        <f aca="false">AF25+AG25</f>
+        <v>3.681</v>
+      </c>
+      <c r="AF25" s="1" t="n">
+        <v>2.959</v>
+      </c>
+      <c r="AG25" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AH25" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI25" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <f aca="false">(B26*C26*D26)</f>
+        <v>32768</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <f aca="false">V26+W26</f>
+        <v>992</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">W26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <f aca="false">R26</f>
+        <v>995</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <f aca="false">X26</f>
+        <v>32.5</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <f aca="false">V26+W26</f>
+        <v>992</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>-0.392</v>
+      </c>
+      <c r="AA26" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AB26" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC26" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z26))*10^(-3)))</f>
+        <v>268.43235504893</v>
+      </c>
+      <c r="AE26" s="1" t="n">
+        <f aca="false">AF26+AG26</f>
+        <v>3.648</v>
+      </c>
+      <c r="AF26" s="1" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="AG26" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH26" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <f aca="false">(B27*C27*D27)</f>
+        <v>16384</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <f aca="false">V27+W27</f>
+        <v>914</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">W27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <f aca="false">R27</f>
+        <v>971</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <f aca="false">X27</f>
+        <v>18.5</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <f aca="false">V27+W27</f>
+        <v>914</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z27" s="1" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB27" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC27" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z27))*10^(-3)))</f>
+        <v>289.491460004723</v>
+      </c>
+      <c r="AE27" s="1" t="n">
+        <f aca="false">AF27+AG27</f>
+        <v>3.622</v>
+      </c>
+      <c r="AF27" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG27" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AH27" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <f aca="false">(B28*C28*D28)</f>
+        <v>8192</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <f aca="false">V28+W28</f>
+        <v>802</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">W28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <f aca="false">R28</f>
+        <v>975</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <f aca="false">X28</f>
+        <v>8</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <f aca="false">V28+W28</f>
+        <v>802</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z28" s="1" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="AA28" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC28" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z28))*10^(-3)))</f>
+        <v>315.22538615441</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <f aca="false">AF28+AG28</f>
+        <v>3.594</v>
+      </c>
+      <c r="AF28" s="1" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AH28" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <f aca="false">(B29*C29*D29)</f>
-        <v>131072</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <f aca="false">V29+W29</f>
-        <v>3560</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <f aca="false">W29</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <f aca="false">R29</f>
-        <v>2117</v>
-      </c>
-      <c r="O29" s="1" t="n">
-        <f aca="false">X29</f>
-        <v>128</v>
-      </c>
-      <c r="Q29" s="1" t="n">
-        <f aca="false">V29+W29</f>
-        <v>3560</v>
-      </c>
-      <c r="R29" s="1" t="n">
-        <v>2117</v>
-      </c>
-      <c r="S29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="U29" s="1" t="n">
-        <v>1100</v>
-      </c>
-      <c r="V29" s="1" t="n">
-        <v>3560</v>
-      </c>
-      <c r="W29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z29" s="1" t="n">
-        <v>-1.702</v>
-      </c>
-      <c r="AA29" s="1" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AB29" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC29" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z29))*10^(-3)))</f>
-        <v>198.596584140067</v>
-      </c>
-      <c r="AE29" s="1" t="n">
-        <f aca="false">AF29+AG29</f>
-        <v>4.015</v>
-      </c>
-      <c r="AF29" s="1" t="n">
-        <v>3.289</v>
-      </c>
-      <c r="AG29" s="1" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="AH29" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI29" s="1" t="n">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <f aca="false">(B30*C30*D30)</f>
-        <v>65536</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>2048</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <f aca="false">V30+W30</f>
-        <v>3364</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <f aca="false">W30</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <f aca="false">R30</f>
-        <v>2053</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <f aca="false">X30</f>
-        <v>64</v>
-      </c>
-      <c r="Q30" s="1" t="n">
-        <f aca="false">V30+W30</f>
-        <v>3364</v>
-      </c>
-      <c r="R30" s="1" t="n">
-        <v>2053</v>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="U30" s="1" t="n">
-        <v>951</v>
-      </c>
-      <c r="V30" s="1" t="n">
-        <v>3364</v>
-      </c>
-      <c r="W30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z30" s="1" t="n">
-        <v>-1.202</v>
-      </c>
-      <c r="AA30" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AB30" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC30" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z30))*10^(-3)))</f>
-        <v>220.490959872266</v>
-      </c>
-      <c r="AE30" s="1" t="n">
-        <f aca="false">AF30+AG30</f>
-        <v>3.883</v>
-      </c>
-      <c r="AF30" s="1" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="AG30" s="1" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="AH30" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI30" s="1" t="n">
-        <v>0.098</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <f aca="false">(B31*C31*D31)</f>
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>1</v>
@@ -2863,20 +2824,20 @@
         <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>8</v>
+        <v>1024</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="1" t="n">
         <f aca="false">V31+W31</f>
-        <v>3295</v>
+        <v>50603</v>
       </c>
       <c r="M31" s="1" t="n">
         <f aca="false">W31</f>
@@ -2884,56 +2845,56 @@
       </c>
       <c r="N31" s="1" t="n">
         <f aca="false">R31</f>
-        <v>1990</v>
+        <v>32733</v>
       </c>
       <c r="O31" s="1" t="n">
         <f aca="false">X31</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q31" s="1" t="n">
         <f aca="false">V31+W31</f>
-        <v>3295</v>
+        <v>50603</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>1990</v>
+        <v>32733</v>
       </c>
       <c r="S31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>710</v>
+        <v>9570</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>3295</v>
+        <v>50603</v>
       </c>
       <c r="W31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>-0.855</v>
+        <v>-1.088</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="AB31" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC31" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z31))*10^(-3)))</f>
-        <v>238.758456030551</v>
+        <v>226.176115803876</v>
       </c>
       <c r="AE31" s="1" t="n">
         <f aca="false">AF31+AG31</f>
-        <v>3.761</v>
+        <v>3.3</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>3.038</v>
+        <v>2.577</v>
       </c>
       <c r="AG31" s="1" t="n">
         <v>0.723</v>
@@ -2948,13 +2909,13 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <f aca="false">(B32*C32*D32)</f>
-        <v>131072</v>
+        <v>8192</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>1</v>
@@ -2966,20 +2927,20 @@
         <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L32" s="1" t="n">
         <f aca="false">V32+W32</f>
-        <v>2100</v>
+        <v>20908</v>
       </c>
       <c r="M32" s="1" t="n">
         <f aca="false">W32</f>
@@ -2987,18 +2948,18 @@
       </c>
       <c r="N32" s="1" t="n">
         <f aca="false">R32</f>
-        <v>1253</v>
+        <v>16794</v>
       </c>
       <c r="O32" s="1" t="n">
         <f aca="false">X32</f>
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="Q32" s="1" t="n">
         <f aca="false">V32+W32</f>
-        <v>2100</v>
+        <v>20908</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>1253</v>
+        <v>16794</v>
       </c>
       <c r="S32" s="1" t="n">
         <v>0</v>
@@ -3007,39 +2968,39 @@
         <v>0</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>782</v>
+        <v>3985</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>2100</v>
+        <v>20908</v>
       </c>
       <c r="W32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>-1.765</v>
+        <v>-0.876</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="AB32" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC32" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z32))*10^(-3)))</f>
-        <v>196.142530239922</v>
+        <v>237.567310739924</v>
       </c>
       <c r="AE32" s="1" t="n">
         <f aca="false">AF32+AG32</f>
-        <v>3.833</v>
+        <v>3.214</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>3.108</v>
+        <v>2.491</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>0.725</v>
+        <v>0.723</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>2.75</v>
@@ -3051,13 +3012,13 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <f aca="false">(B33*C33*D33)</f>
-        <v>65536</v>
+        <v>8192</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>1</v>
@@ -3069,20 +3030,20 @@
         <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L33" s="1" t="n">
         <f aca="false">V33+W33</f>
-        <v>1790</v>
+        <v>8741</v>
       </c>
       <c r="M33" s="1" t="n">
         <f aca="false">W33</f>
@@ -3090,18 +3051,18 @@
       </c>
       <c r="N33" s="1" t="n">
         <f aca="false">R33</f>
-        <v>1222</v>
+        <v>8741</v>
       </c>
       <c r="O33" s="1" t="n">
         <f aca="false">X33</f>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="1" t="n">
         <f aca="false">V33+W33</f>
-        <v>1790</v>
+        <v>8741</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>1222</v>
+        <v>8741</v>
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
@@ -3110,39 +3071,39 @@
         <v>0</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>571</v>
+        <v>1837</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>1790</v>
+        <v>8741</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z33" s="1" t="n">
-        <v>-0.966</v>
+        <v>8</v>
+      </c>
+      <c r="Z33" s="3" t="n">
+        <v>-0.572</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="AB33" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC33" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z33))*10^(-3)))</f>
-        <v>232.594200653067</v>
+        <v>256.060088769683</v>
       </c>
       <c r="AE33" s="1" t="n">
         <f aca="false">AF33+AG33</f>
-        <v>3.813</v>
+        <v>3.137</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>3.089</v>
+        <v>2.415</v>
       </c>
       <c r="AG33" s="1" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>2.75</v>
@@ -3154,10 +3115,10 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <f aca="false">(B34*C34*D34)</f>
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>2048</v>
@@ -3172,20 +3133,20 @@
         <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L34" s="1" t="n">
         <f aca="false">V34+W34</f>
-        <v>1670</v>
+        <v>5358</v>
       </c>
       <c r="M34" s="1" t="n">
         <f aca="false">W34</f>
@@ -3193,18 +3154,18 @@
       </c>
       <c r="N34" s="1" t="n">
         <f aca="false">R34</f>
-        <v>1190</v>
+        <v>4716</v>
       </c>
       <c r="O34" s="1" t="n">
         <f aca="false">X34</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="1" t="n">
         <f aca="false">V34+W34</f>
-        <v>1670</v>
+        <v>5358</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>1190</v>
+        <v>4716</v>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
@@ -3213,266 +3174,60 @@
         <v>0</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>479</v>
+        <v>1043</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>1670</v>
+        <v>5358</v>
       </c>
       <c r="W34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>-0.589</v>
+        <v>-0.16</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="AB34" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC34" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z34))*10^(-3)))</f>
-        <v>254.950284696651</v>
+        <v>286.259541987464</v>
       </c>
       <c r="AE34" s="1" t="n">
         <f aca="false">AF34+AG34</f>
-        <v>3.711</v>
+        <v>3.107</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>2.988</v>
+        <v>2.385</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="AH34" s="1" t="n">
         <v>2.75</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <f aca="false">(B35*C35*D35)</f>
-        <v>65536</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>2048</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <f aca="false">V35+W35</f>
-        <v>3160</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <f aca="false">W35</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <f aca="false">R35</f>
-        <v>1685</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <f aca="false">X35</f>
-        <v>64</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <f aca="false">V35+W35</f>
-        <v>3160</v>
-      </c>
-      <c r="R35" s="1" t="n">
-        <v>1685</v>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>786</v>
-      </c>
-      <c r="V35" s="1" t="n">
-        <v>3160</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z35" s="1" t="n">
-        <v>-1.367</v>
-      </c>
-      <c r="AA35" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB35" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC35" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z35))*10^(-3)))</f>
-        <v>212.750868734223</v>
-      </c>
-      <c r="AE35" s="1" t="n">
-        <f aca="false">AF35+AG35</f>
-        <v>3.83</v>
-      </c>
-      <c r="AF35" s="1" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="AG35" s="1" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="AH35" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI35" s="1" t="n">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <f aca="false">(B36*C36*D36)</f>
-        <v>131072</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>2048</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <f aca="false">V36+W36</f>
-        <v>5576</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <f aca="false">W36</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <f aca="false">R36</f>
-        <v>2680</v>
-      </c>
-      <c r="O36" s="1" t="n">
-        <f aca="false">X36</f>
-        <v>120</v>
-      </c>
-      <c r="Q36" s="1" t="n">
-        <f aca="false">V36+W36</f>
-        <v>5576</v>
-      </c>
-      <c r="R36" s="1" t="n">
-        <v>2680</v>
-      </c>
-      <c r="S36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="1" t="n">
-        <v>1425</v>
-      </c>
-      <c r="V36" s="1" t="n">
-        <v>5576</v>
-      </c>
-      <c r="W36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z36" s="1" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="AA36" s="1" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="AB36" s="1" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="AC36" s="1" t="n">
-        <f aca="false">(1/((3.3333333333-(Z36))*10^(-3)))</f>
-        <v>184.729064040546</v>
-      </c>
-      <c r="AE36" s="1" t="n">
-        <f aca="false">AF36+AG36</f>
-        <v>4.032</v>
-      </c>
-      <c r="AF36" s="1" t="n">
-        <v>3.306</v>
-      </c>
-      <c r="AG36" s="1" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="AH36" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI36" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <f aca="false">(B37*C37*D37)</f>
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>1024</v>
+        <v>4096</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>16</v>
@@ -3481,7 +3236,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>1.1</v>
@@ -3494,7 +3249,7 @@
       </c>
       <c r="L37" s="1" t="n">
         <f aca="false">V37+W37</f>
-        <v>3060</v>
+        <v>3560</v>
       </c>
       <c r="M37" s="1" t="n">
         <f aca="false">W37</f>
@@ -3502,59 +3257,59 @@
       </c>
       <c r="N37" s="1" t="n">
         <f aca="false">R37</f>
-        <v>1653</v>
+        <v>2117</v>
       </c>
       <c r="O37" s="1" t="n">
         <f aca="false">X37</f>
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="Q37" s="1" t="n">
         <f aca="false">V37+W37</f>
-        <v>3060</v>
+        <v>3560</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>1653</v>
+        <v>2117</v>
       </c>
       <c r="S37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>676</v>
+        <v>1100</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>3060</v>
+        <v>3560</v>
       </c>
       <c r="W37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>-0.903</v>
+        <v>-1.702</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="AB37" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC37" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z37))*10^(-3)))</f>
-        <v>236.053190654151</v>
+        <v>198.596584140067</v>
       </c>
       <c r="AE37" s="1" t="n">
         <f aca="false">AF37+AG37</f>
-        <v>3.751</v>
+        <v>4.015</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>3.028</v>
+        <v>3.289</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.723</v>
+        <v>0.726</v>
       </c>
       <c r="AH37" s="1" t="n">
         <v>2.75</v>
@@ -3566,16 +3321,16 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <f aca="false">(B38*C38*D38)</f>
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>16</v>
@@ -3584,7 +3339,7 @@
         <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>1.1</v>
@@ -3597,7 +3352,7 @@
       </c>
       <c r="L38" s="1" t="n">
         <f aca="false">V38+W38</f>
-        <v>5365</v>
+        <v>3364</v>
       </c>
       <c r="M38" s="1" t="n">
         <f aca="false">W38</f>
@@ -3605,18 +3360,18 @@
       </c>
       <c r="N38" s="1" t="n">
         <f aca="false">R38</f>
-        <v>2618</v>
+        <v>2053</v>
       </c>
       <c r="O38" s="1" t="n">
         <f aca="false">X38</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q38" s="1" t="n">
         <f aca="false">V38+W38</f>
-        <v>5365</v>
+        <v>3364</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>2618</v>
+        <v>2053</v>
       </c>
       <c r="S38" s="1" t="n">
         <v>0</v>
@@ -3625,36 +3380,36 @@
         <v>14</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>1010</v>
+        <v>951</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>5365</v>
+        <v>3364</v>
       </c>
       <c r="W38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>-1.1</v>
+        <v>-1.202</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="AB38" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AC38" s="1" t="n">
         <f aca="false">(1/((3.3333333333-(Z38))*10^(-3)))</f>
-        <v>225.563909776132</v>
+        <v>220.490959872266</v>
       </c>
       <c r="AE38" s="1" t="n">
         <f aca="false">AF38+AG38</f>
-        <v>3.94</v>
+        <v>3.883</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>3.215</v>
+        <v>3.158</v>
       </c>
       <c r="AG38" s="1" t="n">
         <v>0.725</v>
@@ -3669,85 +3424,912 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <f aca="false">(B39*C39*D39)</f>
-        <v>0</v>
+        <v>32768</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <f aca="false">V39+W39</f>
+        <v>3295</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <f aca="false">W39</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <f aca="false">R39</f>
+        <v>1990</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <f aca="false">X39</f>
+        <v>32</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <f aca="false">V39+W39</f>
+        <v>3295</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>1990</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U39" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="V39" s="1" t="n">
+        <v>3295</v>
+      </c>
+      <c r="W39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z39" s="1" t="n">
+        <v>-0.855</v>
+      </c>
+      <c r="AA39" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB39" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC39" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z39))*10^(-3)))</f>
+        <v>238.758456030551</v>
+      </c>
+      <c r="AE39" s="1" t="n">
+        <f aca="false">AF39+AG39</f>
+        <v>3.761</v>
+      </c>
+      <c r="AF39" s="1" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="AG39" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH39" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI39" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <f aca="false">(B40*C40*D40)</f>
-        <v>0</v>
+        <v>131072</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <f aca="false">V40+W40</f>
+        <v>2100</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <f aca="false">W40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <f aca="false">R40</f>
+        <v>1253</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <f aca="false">X40</f>
+        <v>120</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <f aca="false">V40+W40</f>
+        <v>2100</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>1253</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="V40" s="1" t="n">
+        <v>2100</v>
+      </c>
+      <c r="W40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z40" s="1" t="n">
+        <v>-1.765</v>
+      </c>
+      <c r="AA40" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AB40" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC40" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z40))*10^(-3)))</f>
+        <v>196.142530239922</v>
+      </c>
+      <c r="AE40" s="1" t="n">
+        <f aca="false">AF40+AG40</f>
+        <v>3.833</v>
+      </c>
+      <c r="AF40" s="1" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="AG40" s="1" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH40" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI40" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <f aca="false">(B41*C41*D41)</f>
-        <v>0</v>
+        <v>65536</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <f aca="false">V41+W41</f>
+        <v>1790</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <f aca="false">W41</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <f aca="false">R41</f>
+        <v>1222</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <f aca="false">X41</f>
+        <v>64</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <f aca="false">V41+W41</f>
+        <v>1790</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>1222</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="V41" s="1" t="n">
+        <v>1790</v>
+      </c>
+      <c r="W41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z41" s="1" t="n">
+        <v>-0.966</v>
+      </c>
+      <c r="AA41" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB41" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC41" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z41))*10^(-3)))</f>
+        <v>232.594200653067</v>
+      </c>
+      <c r="AE41" s="1" t="n">
+        <f aca="false">AF41+AG41</f>
+        <v>3.813</v>
+      </c>
+      <c r="AF41" s="1" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="AG41" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH41" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI41" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <f aca="false">(B42*C42*D42)</f>
-        <v>0</v>
+        <v>32768</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <f aca="false">V42+W42</f>
+        <v>1670</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <f aca="false">W42</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <f aca="false">R42</f>
+        <v>1190</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <f aca="false">X42</f>
+        <v>32</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <f aca="false">V42+W42</f>
+        <v>1670</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="V42" s="1" t="n">
+        <v>1670</v>
+      </c>
+      <c r="W42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z42" s="1" t="n">
+        <v>-0.589</v>
+      </c>
+      <c r="AA42" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AB42" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC42" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z42))*10^(-3)))</f>
+        <v>254.950284696651</v>
+      </c>
+      <c r="AE42" s="1" t="n">
+        <f aca="false">AF42+AG42</f>
+        <v>3.711</v>
+      </c>
+      <c r="AF42" s="1" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="AG42" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH42" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI42" s="1" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <f aca="false">(B43*C43*D43)</f>
+        <v>65536</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <f aca="false">V43+W43</f>
+        <v>3160</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <f aca="false">W43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <f aca="false">R43</f>
+        <v>1685</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <f aca="false">X43</f>
+        <v>64</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <f aca="false">V43+W43</f>
+        <v>3160</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>1685</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="V43" s="1" t="n">
+        <v>3160</v>
+      </c>
+      <c r="W43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z43" s="1" t="n">
+        <v>-1.367</v>
+      </c>
+      <c r="AA43" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB43" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC43" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z43))*10^(-3)))</f>
+        <v>212.750868734223</v>
+      </c>
+      <c r="AE43" s="1" t="n">
+        <f aca="false">AF43+AG43</f>
+        <v>3.83</v>
+      </c>
+      <c r="AF43" s="1" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="AG43" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH43" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI43" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <f aca="false">(B44*C44*D44)</f>
+        <v>131072</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <f aca="false">V44+W44</f>
+        <v>5576</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <f aca="false">W44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <f aca="false">R44</f>
+        <v>2680</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <f aca="false">X44</f>
+        <v>120</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <f aca="false">V44+W44</f>
+        <v>5576</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>2680</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1" t="n">
+        <v>1425</v>
+      </c>
+      <c r="V44" s="1" t="n">
+        <v>5576</v>
+      </c>
+      <c r="W44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z44" s="1" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AA44" s="1" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AB44" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC44" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z44))*10^(-3)))</f>
+        <v>184.729064040546</v>
+      </c>
+      <c r="AE44" s="1" t="n">
+        <f aca="false">AF44+AG44</f>
+        <v>4.032</v>
+      </c>
+      <c r="AF44" s="1" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="AG44" s="1" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="AH44" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI44" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <f aca="false">(B45*C45*D45)</f>
+        <v>32768</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <f aca="false">V45+W45</f>
+        <v>3060</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <f aca="false">W45</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <f aca="false">R45</f>
+        <v>1653</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <f aca="false">X45</f>
+        <v>32</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <f aca="false">V45+W45</f>
+        <v>3060</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>1653</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="V45" s="1" t="n">
+        <v>3060</v>
+      </c>
+      <c r="W45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z45" s="1" t="n">
+        <v>-0.903</v>
+      </c>
+      <c r="AA45" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB45" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC45" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z45))*10^(-3)))</f>
+        <v>236.053190654151</v>
+      </c>
+      <c r="AE45" s="1" t="n">
+        <f aca="false">AF45+AG45</f>
+        <v>3.751</v>
+      </c>
+      <c r="AF45" s="1" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="AG45" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH45" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI45" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <f aca="false">(B46*C46*D46)</f>
+        <v>32768</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <f aca="false">V46+W46</f>
+        <v>5365</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <f aca="false">W46</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <f aca="false">R46</f>
+        <v>2618</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <f aca="false">X46</f>
+        <v>32</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <f aca="false">V46+W46</f>
+        <v>5365</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>2618</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U46" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V46" s="1" t="n">
+        <v>5365</v>
+      </c>
+      <c r="W46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z46" s="1" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AA46" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AB46" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC46" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z46))*10^(-3)))</f>
+        <v>225.563909776132</v>
+      </c>
+      <c r="AE46" s="1" t="n">
+        <f aca="false">AF46+AG46</f>
+        <v>3.94</v>
+      </c>
+      <c r="AF46" s="1" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="AG46" s="1" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH46" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI46" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <f aca="false">(B47*C47*D47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="1" t="n">
+      <c r="A48" s="1" t="n">
+        <f aca="false">(B48*C48*D48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <f aca="false">(B49*C49*D49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <f aca="false">(B50*C50*D50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <f aca="false">(B51*C51*D51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="1" t="n">
+      <c r="C56" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="1" t="n">
         <v>8741</v>
       </c>
-      <c r="H52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1" t="n">
+      <c r="H60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="n">
         <v>1837</v>
       </c>
-      <c r="K52" s="1" t="n">
+      <c r="K60" s="1" t="n">
         <v>8741</v>
       </c>
-      <c r="L52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="N52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="1" t="n">
+      <c r="L60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1" t="n">
         <v>-0.572</v>
       </c>
-      <c r="R52" s="1" t="n">
+      <c r="R60" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="S52" s="1" t="n">
+      <c r="S60" s="1" t="n">
         <v>0.166</v>
       </c>
-      <c r="U52" s="1" t="n">
+      <c r="U60" s="1" t="n">
         <v>2.415</v>
       </c>
-      <c r="V52" s="1" t="n">
+      <c r="V60" s="1" t="n">
         <v>0.722</v>
       </c>
     </row>

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -338,10 +338,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI106"/>
+  <dimension ref="A1:AI113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1452,31 +1452,31 @@
         <f aca="false">V11+W11</f>
         <v>2372</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="1" t="n">
         <v>2642</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="0" t="n">
+      <c r="S11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="n">
         <v>527</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="1" t="n">
         <v>2372</v>
       </c>
-      <c r="W11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z11" s="0" t="n">
+      <c r="W11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z11" s="1" t="n">
         <v>-0.192</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AA11" s="1" t="n">
         <v>0.009</v>
       </c>
       <c r="AB11" s="1" t="n">
@@ -1490,10 +1490,10 @@
         <f aca="false">AF11+AG11</f>
         <v>3.65</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AF11" s="1" t="n">
         <v>2.928</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AG11" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH11" s="1" t="n">
@@ -1558,31 +1558,31 @@
         <f aca="false">V12+W12</f>
         <v>2308</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="1" t="n">
         <v>2577</v>
       </c>
-      <c r="S12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="0" t="n">
+      <c r="S12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="n">
         <v>482</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="1" t="n">
         <v>2308</v>
       </c>
-      <c r="W12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="0" t="n">
+      <c r="W12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="1" t="n">
         <v>-0.176</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AA12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="n">
@@ -1596,10 +1596,10 @@
         <f aca="false">AF12+AG12</f>
         <v>3.647</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AF12" s="1" t="n">
         <v>2.925</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AG12" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH12" s="1" t="n">
@@ -1982,31 +1982,31 @@
         <f aca="false">V16+W16</f>
         <v>1368</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="1" t="n">
         <v>1368</v>
       </c>
-      <c r="S16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="0" t="n">
+      <c r="S16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16" s="1" t="n">
         <v>1368</v>
       </c>
-      <c r="W16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z16" s="0" t="n">
+      <c r="W16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z16" s="1" t="n">
         <v>0.053</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AA16" s="1" t="n">
         <v>0.014</v>
       </c>
       <c r="AB16" s="1" t="n">
@@ -2020,10 +2020,10 @@
         <f aca="false">AF16+AG16</f>
         <v>3.63</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AF16" s="1" t="n">
         <v>2.908</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AG16" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH16" s="1" t="n">
@@ -2088,31 +2088,31 @@
         <f aca="false">V17+W17</f>
         <v>1295</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="1" t="n">
         <v>1519</v>
       </c>
-      <c r="S17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="0" t="n">
+      <c r="S17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17" s="1" t="n">
         <v>1295</v>
       </c>
-      <c r="W17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="0" t="n">
+      <c r="W17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="1" t="n">
         <v>0.095</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AA17" s="1" t="n">
         <v>0.11</v>
       </c>
       <c r="AB17" s="1" t="n">
@@ -2126,7 +2126,7 @@
         <f aca="false">AF17+AG17</f>
         <v>2.877</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AF17" s="1" t="n">
         <v>2.877</v>
       </c>
       <c r="AH17" s="1" t="n">
@@ -2509,31 +2509,31 @@
         <f aca="false">V21+W21</f>
         <v>909</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21" s="1" t="n">
         <v>986</v>
       </c>
-      <c r="S21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="0" t="n">
+      <c r="S21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21" s="1" t="n">
         <v>909</v>
       </c>
-      <c r="W21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="0" t="n">
+      <c r="W21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="Z21" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AA21" s="1" t="n">
         <v>0.011</v>
       </c>
       <c r="AB21" s="1" t="n">
@@ -2547,10 +2547,10 @@
         <f aca="false">AF21+AG21</f>
         <v>3.607</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AF21" s="1" t="n">
         <v>2.885</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AG21" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH21" s="1" t="n">
@@ -2615,31 +2615,31 @@
         <f aca="false">V22+W22</f>
         <v>807</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22" s="1" t="n">
         <v>957</v>
       </c>
-      <c r="S22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="0" t="n">
+      <c r="S22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22" s="1" t="n">
         <v>807</v>
       </c>
-      <c r="W22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="0" t="n">
+      <c r="W22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="1" t="n">
         <v>0.076</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AA22" s="1" t="n">
         <v>0.015</v>
       </c>
       <c r="AB22" s="1" t="n">
@@ -2653,10 +2653,10 @@
         <f aca="false">AF22+AG22</f>
         <v>3.588</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AF22" s="1" t="n">
         <v>2.866</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AG22" s="1" t="n">
         <v>0.722</v>
       </c>
       <c r="AH22" s="1" t="n">
@@ -2665,66 +2665,6 @@
       <c r="AI22" s="1" t="n">
         <v>0.098</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -7709,6 +7649,34 @@
         <v>0.722</v>
       </c>
     </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>274080</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>144000</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>548160</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>912</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -338,10 +338,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI113"/>
+  <dimension ref="A1:AI124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD108" activeCellId="0" sqref="AD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7594,86 +7594,1139 @@
         <v>0</v>
       </c>
     </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="0"/>
+    </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="C102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <f aca="false">(B103*C103*D103)</f>
+        <v>131072</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L103" s="1" t="n">
+        <f aca="false">V103+W103</f>
+        <v>3452</v>
+      </c>
+      <c r="M103" s="1" t="n">
+        <f aca="false">W103</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <f aca="false">R103</f>
+        <v>1719</v>
+      </c>
+      <c r="O103" s="1" t="n">
+        <f aca="false">X103</f>
+        <v>120</v>
+      </c>
+      <c r="Q103" s="1" t="n">
+        <f aca="false">V103+W103</f>
+        <v>3452</v>
+      </c>
+      <c r="R103" s="1" t="n">
+        <v>1719</v>
+      </c>
+      <c r="S103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="V103" s="1" t="n">
+        <v>3452</v>
+      </c>
+      <c r="W103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z103" s="1" t="n">
+        <v>-2.422</v>
+      </c>
+      <c r="AA103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC103" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z103))*10^(-3)))</f>
+        <v>173.751882313065</v>
+      </c>
+      <c r="AE103" s="1" t="n">
+        <f aca="false">AF103+AG103</f>
+        <v>3.86</v>
+      </c>
+      <c r="AF103" s="1" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="AG103" s="1" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH103" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI103" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <f aca="false">(B104*C104*D104)</f>
+        <v>65536</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L104" s="1" t="n">
+        <f aca="false">V104+W104</f>
+        <v>3166</v>
+      </c>
+      <c r="M104" s="1" t="n">
+        <f aca="false">W104</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <f aca="false">R104</f>
+        <v>1685</v>
+      </c>
+      <c r="O104" s="1" t="n">
+        <f aca="false">X104</f>
+        <v>64</v>
+      </c>
+      <c r="Q104" s="1" t="n">
+        <f aca="false">V104+W104</f>
+        <v>3166</v>
+      </c>
+      <c r="R104" s="1" t="n">
+        <v>1685</v>
+      </c>
+      <c r="S104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="V104" s="1" t="n">
+        <v>3166</v>
+      </c>
+      <c r="W104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z104" s="1" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="AA104" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AB104" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC104" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z104))*10^(-3)))</f>
+        <v>209.937018895801</v>
+      </c>
+      <c r="AE104" s="1" t="n">
+        <f aca="false">AF104+AG104</f>
+        <v>3.829</v>
+      </c>
+      <c r="AF104" s="1" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="AG104" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH104" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI104" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <f aca="false">(B105*C105*D105)</f>
+        <v>32768</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L105" s="1" t="n">
+        <f aca="false">V105+W105</f>
+        <v>3026</v>
+      </c>
+      <c r="M105" s="1" t="n">
+        <f aca="false">W105</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <f aca="false">R105</f>
+        <v>1656</v>
+      </c>
+      <c r="O105" s="1" t="n">
+        <f aca="false">X105</f>
+        <v>32</v>
+      </c>
+      <c r="Q105" s="1" t="n">
+        <f aca="false">V105+W105</f>
+        <v>3026</v>
+      </c>
+      <c r="R105" s="1" t="n">
+        <v>1656</v>
+      </c>
+      <c r="S105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="V105" s="1" t="n">
+        <v>3026</v>
+      </c>
+      <c r="W105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z105" s="1" t="n">
+        <v>-0.916</v>
+      </c>
+      <c r="AA105" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AB105" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC105" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z105))*10^(-3)))</f>
+        <v>235.331032320641</v>
+      </c>
+      <c r="AE105" s="1" t="n">
+        <f aca="false">AF105+AG105</f>
+        <v>3.751</v>
+      </c>
+      <c r="AF105" s="1" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="AG105" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH105" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI105" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <f aca="false">(B106*C106*D106)</f>
+        <v>16384</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L106" s="1" t="n">
+        <f aca="false">V106+W106</f>
+        <v>3011</v>
+      </c>
+      <c r="M106" s="1" t="n">
+        <f aca="false">W106</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="1" t="n">
+        <f aca="false">R106</f>
+        <v>1623</v>
+      </c>
+      <c r="O106" s="1" t="n">
+        <f aca="false">X106</f>
+        <v>16</v>
+      </c>
+      <c r="Q106" s="1" t="n">
+        <f aca="false">V106+W106</f>
+        <v>3011</v>
+      </c>
+      <c r="R106" s="1" t="n">
+        <v>1623</v>
+      </c>
+      <c r="S106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="V106" s="1" t="n">
+        <v>3011</v>
+      </c>
+      <c r="W106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z106" s="1" t="n">
+        <v>-0.814</v>
+      </c>
+      <c r="AA106" s="1" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AB106" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC106" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z106))*10^(-3)))</f>
+        <v>241.118791193065</v>
+      </c>
+      <c r="AE106" s="1" t="n">
+        <f aca="false">AF106+AG106</f>
+        <v>3.756</v>
+      </c>
+      <c r="AF106" s="1" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="AG106" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH106" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI106" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <f aca="false">(B107*C107*D107)</f>
+        <v>8192</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L107" s="1" t="n">
+        <f aca="false">V107+W107</f>
+        <v>2965</v>
+      </c>
+      <c r="M107" s="1" t="n">
+        <f aca="false">W107</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <f aca="false">R107</f>
+        <v>1591</v>
+      </c>
+      <c r="O107" s="1" t="n">
+        <f aca="false">X107</f>
+        <v>16</v>
+      </c>
+      <c r="Q107" s="1" t="n">
+        <f aca="false">V107+W107</f>
+        <v>2965</v>
+      </c>
+      <c r="R107" s="1" t="n">
+        <v>1591</v>
+      </c>
+      <c r="S107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="V107" s="1" t="n">
+        <v>2965</v>
+      </c>
+      <c r="W107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z107" s="1" t="n">
+        <v>-0.94</v>
+      </c>
+      <c r="AA107" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AB107" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC107" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z107))*10^(-3)))</f>
+        <v>234.00936037624</v>
+      </c>
+      <c r="AE107" s="1" t="n">
+        <f aca="false">AF107+AG107</f>
+        <v>3.756</v>
+      </c>
+      <c r="AF107" s="1" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="AG107" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH107" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI107" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <f aca="false">(B108*C108*D108)</f>
+        <v>131072</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L108" s="1" t="n">
+        <f aca="false">V108+W108</f>
+        <v>5586</v>
+      </c>
+      <c r="M108" s="1" t="n">
+        <f aca="false">W108</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="1" t="n">
+        <f aca="false">R108</f>
+        <v>2680</v>
+      </c>
+      <c r="O108" s="1" t="n">
+        <f aca="false">X108</f>
+        <v>120</v>
+      </c>
+      <c r="Q108" s="1" t="n">
+        <f aca="false">V108+W108</f>
+        <v>5586</v>
+      </c>
+      <c r="R108" s="1" t="n">
+        <v>2680</v>
+      </c>
+      <c r="S108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" s="1" t="n">
+        <v>1363</v>
+      </c>
+      <c r="V108" s="1" t="n">
+        <v>5586</v>
+      </c>
+      <c r="W108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z108" s="1" t="n">
+        <v>-2.004</v>
+      </c>
+      <c r="AA108" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AB108" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC108" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z108))*10^(-3)))</f>
+        <v>187.359480390878</v>
+      </c>
+      <c r="AE108" s="1" t="n">
+        <f aca="false">AF108+AG108</f>
+        <v>4.036</v>
+      </c>
+      <c r="AF108" s="1" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AG108" s="1" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="AH108" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI108" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <f aca="false">(B109*C109*D109)</f>
+        <v>65536</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L109" s="1" t="n">
+        <f aca="false">V109+W109</f>
+        <v>5500</v>
+      </c>
+      <c r="M109" s="1" t="n">
+        <f aca="false">W109</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="1" t="n">
+        <f aca="false">R109</f>
+        <v>2659</v>
+      </c>
+      <c r="O109" s="1" t="n">
+        <f aca="false">X109</f>
+        <v>64</v>
+      </c>
+      <c r="Q109" s="1" t="n">
+        <f aca="false">V109+W109</f>
+        <v>5500</v>
+      </c>
+      <c r="R109" s="1" t="n">
+        <v>2659</v>
+      </c>
+      <c r="S109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="V109" s="1" t="n">
+        <v>5500</v>
+      </c>
+      <c r="W109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z109" s="1" t="n">
+        <v>-1.384</v>
+      </c>
+      <c r="AA109" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB109" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC109" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z109))*10^(-3)))</f>
+        <v>211.98417185</v>
+      </c>
+      <c r="AE109" s="1" t="n">
+        <f aca="false">AF109+AG109</f>
+        <v>3.936</v>
+      </c>
+      <c r="AF109" s="1" t="n">
+        <v>3.211</v>
+      </c>
+      <c r="AG109" s="1" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH109" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI109" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <f aca="false">(B110*C110*D110)</f>
+        <v>32768</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L110" s="1" t="n">
+        <f aca="false">V110+W110</f>
+        <v>5395</v>
+      </c>
+      <c r="M110" s="1" t="n">
+        <f aca="false">W110</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="1" t="n">
+        <f aca="false">R110</f>
+        <v>2618</v>
+      </c>
+      <c r="O110" s="1" t="n">
+        <f aca="false">X110</f>
+        <v>32</v>
+      </c>
+      <c r="Q110" s="1" t="n">
+        <f aca="false">V110+W110</f>
+        <v>5395</v>
+      </c>
+      <c r="R110" s="1" t="n">
+        <v>2618</v>
+      </c>
+      <c r="S110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U110" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="V110" s="1" t="n">
+        <v>5395</v>
+      </c>
+      <c r="W110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z110" s="1" t="n">
+        <v>-1.021</v>
+      </c>
+      <c r="AA110" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AB110" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC110" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z110))*10^(-3)))</f>
+        <v>229.656281101046</v>
+      </c>
+      <c r="AE110" s="1" t="n">
+        <f aca="false">AF110+AG110</f>
+        <v>3.941</v>
+      </c>
+      <c r="AF110" s="1" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="AG110" s="1" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH110" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI110" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <f aca="false">(B111*C111*D111)</f>
+        <v>16384</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F111" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L111" s="1" t="n">
+        <f aca="false">V111+W111</f>
+        <v>5408</v>
+      </c>
+      <c r="M111" s="1" t="n">
+        <f aca="false">W111</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="1" t="n">
+        <f aca="false">R111</f>
+        <v>2588</v>
+      </c>
+      <c r="O111" s="1" t="n">
+        <f aca="false">X111</f>
+        <v>32</v>
+      </c>
+      <c r="Q111" s="1" t="n">
+        <f aca="false">V111+W111</f>
+        <v>5408</v>
+      </c>
+      <c r="R111" s="1" t="n">
+        <v>2588</v>
+      </c>
+      <c r="S111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="V111" s="1" t="n">
+        <v>5408</v>
+      </c>
+      <c r="W111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z111" s="1" t="n">
+        <v>-1.076</v>
+      </c>
+      <c r="AA111" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AB111" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC111" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z111))*10^(-3)))</f>
+        <v>226.791654068845</v>
+      </c>
+      <c r="AE111" s="1" t="n">
+        <f aca="false">AF111+AG111</f>
+        <v>3.941</v>
+      </c>
+      <c r="AF111" s="1" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="AG111" s="1" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AH111" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI111" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <f aca="false">(B112*C112*D112)</f>
+        <v>8192</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L112" s="1" t="n">
+        <f aca="false">V112+W112</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="1" t="n">
+        <f aca="false">W112</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="1" t="n">
+        <f aca="false">R112</f>
+        <v>0</v>
+      </c>
+      <c r="O112" s="1" t="n">
+        <f aca="false">X112</f>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1" t="n">
+        <f aca="false">V112+W112</f>
+        <v>0</v>
+      </c>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC112" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z112))*10^(-3)))</f>
+        <v>300.000000003</v>
+      </c>
+      <c r="AE112" s="1" t="n">
+        <f aca="false">AF112+AG112</f>
+        <v>0</v>
+      </c>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI112" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B115" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G106" s="1" t="n">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G119" s="1" t="n">
         <v>8741</v>
       </c>
-      <c r="H106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" s="1" t="n">
+      <c r="H119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1" t="n">
         <v>1837</v>
       </c>
-      <c r="K106" s="1" t="n">
+      <c r="K119" s="1" t="n">
         <v>8741</v>
       </c>
-      <c r="L106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="N106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="1" t="n">
+      <c r="L119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1" t="n">
         <v>-0.572</v>
       </c>
-      <c r="R106" s="1" t="n">
+      <c r="R119" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="S106" s="1" t="n">
+      <c r="S119" s="1" t="n">
         <v>0.166</v>
       </c>
-      <c r="U106" s="1" t="n">
+      <c r="U119" s="1" t="n">
         <v>2.415</v>
       </c>
-      <c r="V106" s="1" t="n">
+      <c r="V119" s="1" t="n">
         <v>0.722</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
         <v>274080</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>144000</v>
       </c>
-      <c r="C113" s="1" t="n">
+      <c r="C124" s="1" t="n">
         <v>548160</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D124" s="1" t="n">
         <v>912</v>
       </c>
     </row>

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="37">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">new Vivado strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an uni</t>
   </si>
   <si>
     <t xml:space="preserve">Standard</t>
@@ -340,8 +343,8 @@
   </sheetPr>
   <dimension ref="A1:AI124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD108" activeCellId="0" sqref="AD108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH25" activeCellId="0" sqref="AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2663,6 +2666,112 @@
         <v>2.75</v>
       </c>
       <c r="AI22" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <f aca="false">(B25*C25*D25)</f>
+        <v>131072</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <f aca="false">V25+W25</f>
+        <v>3958</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">W25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <f aca="false">R25</f>
+        <v>2453</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <f aca="false">X25</f>
+        <v>129</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <f aca="false">V25+W25</f>
+        <v>3958</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>2453</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <v>3958</v>
+      </c>
+      <c r="W25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="Z25" s="1" t="n">
+        <v>-1.371</v>
+      </c>
+      <c r="AA25" s="1" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AB25" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC25" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z25))*10^(-3)))</f>
+        <v>212.569970950277</v>
+      </c>
+      <c r="AE25" s="1" t="n">
+        <f aca="false">AF25+AG25</f>
+        <v>3.319</v>
+      </c>
+      <c r="AF25" s="1" t="n">
+        <v>2.595</v>
+      </c>
+      <c r="AG25" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH25" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI25" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>
@@ -4882,7 +4991,7 @@
         <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H68" s="1" t="n">
         <v>1.1</v>
@@ -4985,7 +5094,7 @@
         <v>14</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>1.1</v>
@@ -5088,7 +5197,7 @@
         <v>14</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>1.1</v>
@@ -5191,7 +5300,7 @@
         <v>14</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>1.1</v>
@@ -5294,7 +5403,7 @@
         <v>14</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>1.1</v>
@@ -5397,7 +5506,7 @@
         <v>14</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73" s="1" t="n">
         <v>1.1</v>
@@ -5500,7 +5609,7 @@
         <v>14</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H74" s="1" t="n">
         <v>1.1</v>
@@ -5603,7 +5712,7 @@
         <v>14</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>1.1</v>
@@ -5706,7 +5815,7 @@
         <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76" s="1" t="n">
         <v>1.1</v>
@@ -5809,7 +5918,7 @@
         <v>14</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>1.1</v>
@@ -5942,7 +6051,7 @@
         <v>14</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H83" s="1" t="n">
         <v>1.1</v>
@@ -6048,7 +6157,7 @@
         <v>14</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H84" s="1" t="n">
         <v>1.1</v>
@@ -6154,7 +6263,7 @@
         <v>14</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85" s="1" t="n">
         <v>1.1</v>
@@ -6260,7 +6369,7 @@
         <v>14</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86" s="1" t="n">
         <v>1.1</v>
@@ -6366,7 +6475,7 @@
         <v>14</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87" s="1" t="n">
         <v>1.1</v>
@@ -6469,7 +6578,7 @@
         <v>14</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88" s="1" t="n">
         <v>1.1</v>
@@ -6572,7 +6681,7 @@
         <v>14</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89" s="1" t="n">
         <v>1.1</v>
@@ -6675,7 +6784,7 @@
         <v>14</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90" s="1" t="n">
         <v>1.1</v>
@@ -6778,7 +6887,7 @@
         <v>14</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91" s="1" t="n">
         <v>1.1</v>
@@ -6881,7 +6990,7 @@
         <v>14</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92" s="1" t="n">
         <v>1.1</v>
@@ -6984,7 +7093,7 @@
         <v>14</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H93" s="1" t="n">
         <v>1.1</v>
@@ -7087,7 +7196,7 @@
         <v>14</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94" s="1" t="n">
         <v>1.1</v>
@@ -7190,7 +7299,7 @@
         <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H95" s="1" t="n">
         <v>1.1</v>
@@ -7293,7 +7402,7 @@
         <v>14</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96" s="1" t="n">
         <v>1.1</v>
@@ -7396,7 +7505,7 @@
         <v>14</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97" s="1" t="n">
         <v>1.1</v>
@@ -7493,7 +7602,7 @@
         <v>14</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98" s="1" t="n">
         <v>1.1</v>
@@ -7551,7 +7660,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99" s="1" t="n">
         <v>1.1</v>
@@ -7593,15 +7702,6 @@
         <f aca="false">AF99+AG99</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
@@ -7624,7 +7724,7 @@
         <v>14</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H103" s="1" t="n">
         <v>1.1</v>
@@ -7730,7 +7830,7 @@
         <v>14</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H104" s="1" t="n">
         <v>1.1</v>
@@ -7836,7 +7936,7 @@
         <v>14</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105" s="1" t="n">
         <v>1.1</v>
@@ -7942,7 +8042,7 @@
         <v>14</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1.1</v>
@@ -8035,7 +8135,7 @@
       <c r="B107" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>256</v>
       </c>
       <c r="D107" s="1" t="n">
@@ -8048,7 +8148,7 @@
         <v>14</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>1.1</v>
@@ -8154,7 +8254,7 @@
         <v>14</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>1.1</v>
@@ -8260,7 +8360,7 @@
         <v>14</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H109" s="1" t="n">
         <v>1.1</v>
@@ -8366,7 +8466,7 @@
         <v>14</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H110" s="1" t="n">
         <v>1.1</v>
@@ -8459,7 +8559,7 @@
       <c r="B111" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>256</v>
       </c>
       <c r="D111" s="1" t="n">
@@ -8472,7 +8572,7 @@
         <v>14</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H111" s="1" t="n">
         <v>1.1</v>
@@ -8565,7 +8665,7 @@
       <c r="B112" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>128</v>
       </c>
       <c r="D112" s="1" t="n">
@@ -8578,7 +8678,7 @@
         <v>14</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112" s="1" t="n">
         <v>1.1</v>
@@ -8641,21 +8741,15 @@
         <v>0.098</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="0"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="0"/>
-    </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
   <si>
     <t xml:space="preserve">Total Memory</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">an uni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuhause 24.02.25</t>
   </si>
   <si>
     <t xml:space="preserve">Standard</t>
@@ -343,8 +346,8 @@
   </sheetPr>
   <dimension ref="A1:AI124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH25" activeCellId="0" sqref="AH25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH28" activeCellId="0" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2772,6 +2775,324 @@
         <v>2.75</v>
       </c>
       <c r="AI25" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <f aca="false">(B26*C26*D26)</f>
+        <v>65536</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <f aca="false">V26+W26</f>
+        <v>3695</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">W26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <f aca="false">R26</f>
+        <v>2327</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <f aca="false">X26</f>
+        <v>73</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <f aca="false">V26+W26</f>
+        <v>3695</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>2327</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>3695</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>-1.158</v>
+      </c>
+      <c r="AA26" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AB26" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC26" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z26))*10^(-3)))</f>
+        <v>222.651031618099</v>
+      </c>
+      <c r="AE26" s="1" t="n">
+        <f aca="false">AF26+AG26</f>
+        <v>3.293</v>
+      </c>
+      <c r="AF26" s="1" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="AG26" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH26" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <f aca="false">(B27*C27*D27)</f>
+        <v>32768</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <f aca="false">V27+W27</f>
+        <v>3361</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">W27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <f aca="false">R27</f>
+        <v>2304</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <f aca="false">X27</f>
+        <v>49</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <f aca="false">V27+W27</f>
+        <v>3361</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>2304</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>3361</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z27" s="1" t="n">
+        <v>-1.166</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AB27" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC27" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z27))*10^(-3)))</f>
+        <v>222.255148912596</v>
+      </c>
+      <c r="AE27" s="1" t="n">
+        <f aca="false">AF27+AG27</f>
+        <v>3.247</v>
+      </c>
+      <c r="AF27" s="1" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="AG27" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AH27" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <f aca="false">(B28*C28*D28)</f>
+        <v>16384</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <f aca="false">U28+V28</f>
+        <v>4316</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">V28</f>
+        <v>3381</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <f aca="false">R28</f>
+        <v>2306</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <f aca="false">X28</f>
+        <v>16</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <f aca="false">U28+V28</f>
+        <v>4316</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>2306</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>3381</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>2176</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z28" s="1" t="n">
+        <v>-0.771</v>
+      </c>
+      <c r="AA28" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AC28" s="1" t="n">
+        <f aca="false">(1/((3.3333333333-(Z28))*10^(-3)))</f>
+        <v>243.644928126725</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <f aca="false">AF28+AG28</f>
+        <v>3.24</v>
+      </c>
+      <c r="AF28" s="1" t="n">
+        <v>2.517</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AH28" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI28" s="1" t="n">
         <v>0.098</v>
       </c>
     </row>
@@ -4991,7 +5312,7 @@
         <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H68" s="1" t="n">
         <v>1.1</v>
@@ -5094,7 +5415,7 @@
         <v>14</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>1.1</v>
@@ -5197,7 +5518,7 @@
         <v>14</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>1.1</v>
@@ -5300,7 +5621,7 @@
         <v>14</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>1.1</v>
@@ -5403,7 +5724,7 @@
         <v>14</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>1.1</v>
@@ -5506,7 +5827,7 @@
         <v>14</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73" s="1" t="n">
         <v>1.1</v>
@@ -5609,7 +5930,7 @@
         <v>14</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H74" s="1" t="n">
         <v>1.1</v>
@@ -5712,7 +6033,7 @@
         <v>14</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>1.1</v>
@@ -5815,7 +6136,7 @@
         <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76" s="1" t="n">
         <v>1.1</v>
@@ -5918,7 +6239,7 @@
         <v>14</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>1.1</v>
@@ -6051,7 +6372,7 @@
         <v>14</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H83" s="1" t="n">
         <v>1.1</v>
@@ -6157,7 +6478,7 @@
         <v>14</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H84" s="1" t="n">
         <v>1.1</v>
@@ -6263,7 +6584,7 @@
         <v>14</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85" s="1" t="n">
         <v>1.1</v>
@@ -6369,7 +6690,7 @@
         <v>14</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H86" s="1" t="n">
         <v>1.1</v>
@@ -6475,7 +6796,7 @@
         <v>14</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H87" s="1" t="n">
         <v>1.1</v>
@@ -6578,7 +6899,7 @@
         <v>14</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88" s="1" t="n">
         <v>1.1</v>
@@ -6681,7 +7002,7 @@
         <v>14</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H89" s="1" t="n">
         <v>1.1</v>
@@ -6784,7 +7105,7 @@
         <v>14</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H90" s="1" t="n">
         <v>1.1</v>
@@ -6887,7 +7208,7 @@
         <v>14</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H91" s="1" t="n">
         <v>1.1</v>
@@ -6990,7 +7311,7 @@
         <v>14</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92" s="1" t="n">
         <v>1.1</v>
@@ -7093,7 +7414,7 @@
         <v>14</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93" s="1" t="n">
         <v>1.1</v>
@@ -7196,7 +7517,7 @@
         <v>14</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H94" s="1" t="n">
         <v>1.1</v>
@@ -7299,7 +7620,7 @@
         <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95" s="1" t="n">
         <v>1.1</v>
@@ -7402,7 +7723,7 @@
         <v>14</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H96" s="1" t="n">
         <v>1.1</v>
@@ -7505,7 +7826,7 @@
         <v>14</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H97" s="1" t="n">
         <v>1.1</v>
@@ -7602,7 +7923,7 @@
         <v>14</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H98" s="1" t="n">
         <v>1.1</v>
@@ -7660,7 +7981,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H99" s="1" t="n">
         <v>1.1</v>
@@ -7724,7 +8045,7 @@
         <v>14</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103" s="1" t="n">
         <v>1.1</v>
@@ -7830,7 +8151,7 @@
         <v>14</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104" s="1" t="n">
         <v>1.1</v>
@@ -7936,7 +8257,7 @@
         <v>14</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105" s="1" t="n">
         <v>1.1</v>
@@ -8042,7 +8363,7 @@
         <v>14</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1.1</v>
@@ -8148,7 +8469,7 @@
         <v>14</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>1.1</v>
@@ -8254,7 +8575,7 @@
         <v>14</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>1.1</v>
@@ -8360,7 +8681,7 @@
         <v>14</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H109" s="1" t="n">
         <v>1.1</v>
@@ -8466,7 +8787,7 @@
         <v>14</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H110" s="1" t="n">
         <v>1.1</v>
@@ -8572,7 +8893,7 @@
         <v>14</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H111" s="1" t="n">
         <v>1.1</v>
@@ -8678,7 +8999,7 @@
         <v>14</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H112" s="1" t="n">
         <v>1.1</v>
@@ -8743,13 +9064,13 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Big_data_table.xlsx
+++ b/Big_data_table.xlsx
@@ -346,8 +346,8 @@
   </sheetPr>
   <dimension ref="A1:AI124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH28" activeCellId="0" sqref="AH28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R30" activeCellId="0" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2724,8 +2724,8 @@
         <v>129</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <f aca="false">V25+W25</f>
-        <v>3958</v>
+        <f aca="false">V25+U25</f>
+        <v>4915</v>
       </c>
       <c r="R25" s="1" t="n">
         <v>2453</v>
@@ -3042,8 +3042,8 @@
         <v>16</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <f aca="false">U28+V28</f>
-        <v>4316</v>
+        <f aca="false">V28+W28</f>
+        <v>5557</v>
       </c>
       <c r="R28" s="1" t="n">
         <v>2306</v>
@@ -3060,7 +3060,7 @@
       <c r="V28" s="1" t="n">
         <v>3381</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="W28" s="1" t="n">
         <v>2176</v>
       </c>
       <c r="X28" s="1" t="n">
